--- a/违约债券报表.xlsx
+++ b/违约债券报表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\FinanceLecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AllDefault" sheetId="1" r:id="rId1"/>
@@ -3506,6 +3506,9 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3521,23 +3524,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3596,7 +3596,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3714,8 +3713,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="835957568"/>
-        <c:axId val="835957960"/>
+        <c:axId val="659603400"/>
+        <c:axId val="661465928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3816,11 +3815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="794422848"/>
-        <c:axId val="835958352"/>
+        <c:axId val="661466712"/>
+        <c:axId val="661466320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="835957568"/>
+        <c:axId val="659603400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3863,7 +3862,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835957960"/>
+        <c:crossAx val="661465928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3871,7 +3870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="835957960"/>
+        <c:axId val="661465928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3922,12 +3921,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835957568"/>
+        <c:crossAx val="659603400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="835958352"/>
+        <c:axId val="661466320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,12 +3963,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794422848"/>
+        <c:crossAx val="661466712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="794422848"/>
+        <c:axId val="661466712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3979,7 +3978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="835958352"/>
+        <c:crossAx val="661466320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4116,7 +4115,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4177,6 +4175,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2016年'!$B$3:$B$14</c:f>
@@ -4278,8 +4333,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="901785672"/>
-        <c:axId val="901786064"/>
+        <c:axId val="665497136"/>
+        <c:axId val="665497528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -4424,11 +4479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="901786848"/>
-        <c:axId val="901786456"/>
+        <c:axId val="665498312"/>
+        <c:axId val="665497920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="901785672"/>
+        <c:axId val="665497136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4471,7 +4526,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901786064"/>
+        <c:crossAx val="665497528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4479,7 +4534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="901786064"/>
+        <c:axId val="665497528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4530,12 +4585,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901785672"/>
+        <c:crossAx val="665497136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901786456"/>
+        <c:axId val="665497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4572,12 +4627,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901786848"/>
+        <c:crossAx val="665498312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="901786848"/>
+        <c:axId val="665498312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="901786456"/>
+        <c:crossAx val="665497920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4604,7 +4659,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4711,7 +4765,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4939,7 +4992,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5005,7 +5057,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5071,7 +5122,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5243,7 +5293,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5309,13 +5358,11 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -5370,13 +5417,11 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -5431,7 +5476,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5636,7 +5680,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5818,9 +5861,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5865,9 +5906,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5886,9 +5925,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6017,7 +6054,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -6372,8 +6408,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="901788416"/>
-        <c:axId val="901788808"/>
+        <c:axId val="664231792"/>
+        <c:axId val="664232184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6487,11 +6523,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="896614072"/>
-        <c:axId val="901789200"/>
+        <c:axId val="664232968"/>
+        <c:axId val="664232576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="901788416"/>
+        <c:axId val="664231792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6534,7 +6570,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901788808"/>
+        <c:crossAx val="664232184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6542,7 +6578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="901788808"/>
+        <c:axId val="664232184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6593,12 +6629,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="901788416"/>
+        <c:crossAx val="664231792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="901789200"/>
+        <c:axId val="664232576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6635,12 +6671,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896614072"/>
+        <c:crossAx val="664232968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="896614072"/>
+        <c:axId val="664232968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6650,7 +6686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="901789200"/>
+        <c:crossAx val="664232576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6665,6 +6701,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6921,8 +6989,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="896614856"/>
-        <c:axId val="896615248"/>
+        <c:axId val="664233752"/>
+        <c:axId val="664234144"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -7054,11 +7122,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="896616032"/>
-        <c:axId val="896615640"/>
+        <c:axId val="664234928"/>
+        <c:axId val="664234536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="896614856"/>
+        <c:axId val="664233752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7101,7 +7169,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896615248"/>
+        <c:crossAx val="664234144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7110,7 +7178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="896615248"/>
+        <c:axId val="664234144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7161,12 +7229,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896614856"/>
+        <c:crossAx val="664233752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="896615640"/>
+        <c:axId val="664234536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7203,12 +7271,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896616032"/>
+        <c:crossAx val="664234928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="896616032"/>
+        <c:axId val="664234928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7218,7 +7286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="896615640"/>
+        <c:crossAx val="664234536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7351,7 +7419,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7468,7 +7535,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7622,8 +7688,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="896616816"/>
-        <c:axId val="896617208"/>
+        <c:axId val="664235712"/>
+        <c:axId val="664236104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7708,9 +7774,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7728,9 +7792,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7911,11 +7973,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="702581808"/>
-        <c:axId val="702578280"/>
+        <c:axId val="664236888"/>
+        <c:axId val="664236496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="896616816"/>
+        <c:axId val="664235712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7958,7 +8020,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896617208"/>
+        <c:crossAx val="664236104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7966,7 +8028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="896617208"/>
+        <c:axId val="664236104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8017,12 +8079,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896616816"/>
+        <c:crossAx val="664235712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="702578280"/>
+        <c:axId val="664236496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8059,12 +8121,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702581808"/>
+        <c:crossAx val="664236888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="702581808"/>
+        <c:axId val="664236888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8074,7 +8136,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="702578280"/>
+        <c:crossAx val="664236496"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -8090,7 +8153,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8197,7 +8259,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8308,7 +8369,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8379,8 +8439,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="896617992"/>
-        <c:axId val="896618384"/>
+        <c:axId val="664237672"/>
+        <c:axId val="664238064"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -8449,7 +8509,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8500,11 +8559,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="896619168"/>
-        <c:axId val="896618776"/>
+        <c:axId val="664238848"/>
+        <c:axId val="664238456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="896617992"/>
+        <c:axId val="664237672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8547,7 +8606,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896618384"/>
+        <c:crossAx val="664238064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8555,7 +8614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="896618384"/>
+        <c:axId val="664238064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8606,12 +8665,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896617992"/>
+        <c:crossAx val="664237672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="896618776"/>
+        <c:axId val="664238456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8648,12 +8707,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896619168"/>
+        <c:crossAx val="664238848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="896619168"/>
+        <c:axId val="664238848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8662,7 +8721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="896618776"/>
+        <c:crossAx val="664238456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8679,7 +8738,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8786,7 +8844,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9215,8 +9272,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="896619952"/>
-        <c:axId val="896620344"/>
+        <c:axId val="663882088"/>
+        <c:axId val="663882480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9275,9 +9332,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9494,11 +9549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="896621128"/>
-        <c:axId val="896620736"/>
+        <c:axId val="663883264"/>
+        <c:axId val="663882872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="896619952"/>
+        <c:axId val="663882088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9541,7 +9596,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896620344"/>
+        <c:crossAx val="663882480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9549,7 +9604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="896620344"/>
+        <c:axId val="663882480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9600,12 +9655,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896619952"/>
+        <c:crossAx val="663882088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="896620736"/>
+        <c:axId val="663882872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9642,12 +9697,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896621128"/>
+        <c:crossAx val="663883264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="896621128"/>
+        <c:axId val="663883264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9657,7 +9712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="896620736"/>
+        <c:crossAx val="663882872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9674,7 +9729,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9781,7 +9835,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9882,7 +9935,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9959,8 +10011,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="887532712"/>
-        <c:axId val="887532320"/>
+        <c:axId val="663884048"/>
+        <c:axId val="663883656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10042,7 +10094,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10120,11 +10171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="887531536"/>
-        <c:axId val="887531928"/>
+        <c:axId val="663880128"/>
+        <c:axId val="663879736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="887531536"/>
+        <c:axId val="663880128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10167,7 +10218,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="887531928"/>
+        <c:crossAx val="663879736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10175,7 +10226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="887531928"/>
+        <c:axId val="663879736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10226,12 +10277,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="887531536"/>
+        <c:crossAx val="663880128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="887532320"/>
+        <c:axId val="663883656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10268,12 +10319,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="887532712"/>
+        <c:crossAx val="663884048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="887532712"/>
+        <c:axId val="663884048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10283,7 +10334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="887532320"/>
+        <c:crossAx val="663883656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10300,7 +10351,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10407,7 +10457,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10649,7 +10698,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10715,7 +10763,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10781,7 +10828,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10937,7 +10983,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11003,13 +11048,11 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11064,13 +11107,11 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11125,13 +11166,11 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11186,7 +11225,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11397,7 +11435,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11593,9 +11630,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11640,9 +11675,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11661,9 +11694,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11941,7 +11972,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -12113,7 +12143,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12205,7 +12234,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12300,8 +12328,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="794424416"/>
-        <c:axId val="840894208"/>
+        <c:axId val="664010424"/>
+        <c:axId val="664010816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12409,11 +12437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="840894992"/>
-        <c:axId val="840894600"/>
+        <c:axId val="664011600"/>
+        <c:axId val="664011208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="794424416"/>
+        <c:axId val="664010424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12456,7 +12484,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840894208"/>
+        <c:crossAx val="664010816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12464,7 +12492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="840894208"/>
+        <c:axId val="664010816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12515,12 +12543,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794424416"/>
+        <c:crossAx val="664010424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="840894600"/>
+        <c:axId val="664011208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12557,12 +12585,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840894992"/>
+        <c:crossAx val="664011600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="840894992"/>
+        <c:axId val="664011600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12571,7 +12599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="840894600"/>
+        <c:crossAx val="664011208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12772,7 +12800,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12842,8 +12869,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="840895776"/>
-        <c:axId val="840940640"/>
+        <c:axId val="664012384"/>
+        <c:axId val="664012776"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -12916,11 +12943,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="840941424"/>
-        <c:axId val="840941032"/>
+        <c:axId val="664013560"/>
+        <c:axId val="664013168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="840895776"/>
+        <c:axId val="664012384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12963,7 +12990,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840940640"/>
+        <c:crossAx val="664012776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12972,7 +12999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="840940640"/>
+        <c:axId val="664012776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13023,12 +13050,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840895776"/>
+        <c:crossAx val="664012384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="840941032"/>
+        <c:axId val="664013168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13065,12 +13092,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840941424"/>
+        <c:crossAx val="664013560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="840941424"/>
+        <c:axId val="664013560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13080,7 +13107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="840941032"/>
+        <c:crossAx val="664013168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13213,7 +13240,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13293,7 +13319,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="20"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -13301,9 +13326,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -13521,11 +13544,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="840942208"/>
-        <c:axId val="840975456"/>
+        <c:axId val="664053688"/>
+        <c:axId val="664054080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="840942208"/>
+        <c:axId val="664053688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13568,7 +13591,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840975456"/>
+        <c:crossAx val="664054080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13576,7 +13599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="840975456"/>
+        <c:axId val="664054080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13627,7 +13650,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840942208"/>
+        <c:crossAx val="664053688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13716,7 +13739,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13819,7 +13841,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13890,8 +13911,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="840976240"/>
-        <c:axId val="840976632"/>
+        <c:axId val="661469064"/>
+        <c:axId val="661468672"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -13952,7 +13973,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14003,11 +14023,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="800712496"/>
-        <c:axId val="840977024"/>
+        <c:axId val="661467888"/>
+        <c:axId val="661468280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="840976240"/>
+        <c:axId val="661469064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14050,7 +14070,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840976632"/>
+        <c:crossAx val="661468672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14058,7 +14078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="840976632"/>
+        <c:axId val="661468672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14109,12 +14129,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="840976240"/>
+        <c:crossAx val="661469064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="840977024"/>
+        <c:axId val="661468280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14151,12 +14171,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800712496"/>
+        <c:crossAx val="661467888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="800712496"/>
+        <c:axId val="661467888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14165,7 +14185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="840977024"/>
+        <c:crossAx val="661468280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14787,8 +14807,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="800713280"/>
-        <c:axId val="800713672"/>
+        <c:axId val="664053296"/>
+        <c:axId val="664055256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15034,11 +15054,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="800793576"/>
-        <c:axId val="800714064"/>
+        <c:axId val="664056040"/>
+        <c:axId val="664055648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="800713280"/>
+        <c:axId val="664053296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15081,7 +15101,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800713672"/>
+        <c:crossAx val="664055256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15089,7 +15109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="800713672"/>
+        <c:axId val="664055256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15140,12 +15160,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800713280"/>
+        <c:crossAx val="664053296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="800714064"/>
+        <c:axId val="664055648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15182,12 +15202,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800793576"/>
+        <c:crossAx val="664056040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="800793576"/>
+        <c:axId val="664056040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15197,7 +15217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="800714064"/>
+        <c:crossAx val="664055648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15330,7 +15350,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15431,7 +15450,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15520,8 +15538,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="800436008"/>
-        <c:axId val="800795144"/>
+        <c:axId val="665496352"/>
+        <c:axId val="665495960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15603,7 +15621,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15693,11 +15710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="800794360"/>
-        <c:axId val="800794752"/>
+        <c:axId val="664056824"/>
+        <c:axId val="665495568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="800794360"/>
+        <c:axId val="664056824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15740,7 +15757,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800794752"/>
+        <c:crossAx val="665495568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15748,7 +15765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="800794752"/>
+        <c:axId val="665495568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15799,12 +15816,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800794360"/>
+        <c:crossAx val="664056824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="800795144"/>
+        <c:axId val="665495960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15841,12 +15858,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800436008"/>
+        <c:crossAx val="665496352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="800436008"/>
+        <c:axId val="665496352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15856,7 +15873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="800795144"/>
+        <c:crossAx val="665495960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -34224,8 +34241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34270,7 +34287,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>622</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -34292,7 +34309,7 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="11" t="s">
         <v>408</v>
       </c>
@@ -34315,7 +34332,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="11" t="s">
         <v>412</v>
       </c>
@@ -34335,7 +34352,7 @@
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="11" t="s">
         <v>404</v>
       </c>
@@ -34358,7 +34375,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="11" t="s">
         <v>381</v>
       </c>
@@ -34378,7 +34395,7 @@
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>377</v>
       </c>
@@ -34398,7 +34415,7 @@
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>384</v>
       </c>
@@ -34418,7 +34435,7 @@
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>398</v>
       </c>
@@ -34438,7 +34455,7 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="11" t="s">
         <v>395</v>
       </c>
@@ -34458,7 +34475,7 @@
       <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="11" t="s">
         <v>401</v>
       </c>
@@ -34478,7 +34495,7 @@
       <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="11" t="s">
         <v>601</v>
       </c>
@@ -34501,7 +34518,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="11" t="s">
         <v>371</v>
       </c>
@@ -34521,7 +34538,7 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
         <v>368</v>
       </c>
@@ -34541,7 +34558,7 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="11" t="s">
         <v>363</v>
       </c>
@@ -34561,7 +34578,7 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="11" t="s">
         <v>359</v>
       </c>
@@ -34581,7 +34598,7 @@
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="11" t="s">
         <v>354</v>
       </c>
@@ -34601,7 +34618,7 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="11" t="s">
         <v>350</v>
       </c>
@@ -34621,7 +34638,7 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11" t="s">
         <v>346</v>
       </c>
@@ -34641,7 +34658,7 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="44" t="s">
         <v>627</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -34663,7 +34680,7 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="11" t="s">
         <v>606</v>
       </c>
@@ -34686,7 +34703,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="11" t="s">
         <v>330</v>
       </c>
@@ -34706,7 +34723,7 @@
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="11" t="s">
         <v>323</v>
       </c>
@@ -34726,7 +34743,7 @@
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="11" t="s">
         <v>316</v>
       </c>
@@ -34746,7 +34763,7 @@
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="11" t="s">
         <v>307</v>
       </c>
@@ -34766,7 +34783,7 @@
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="11" t="s">
         <v>314</v>
       </c>
@@ -34786,7 +34803,7 @@
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
         <v>303</v>
       </c>
@@ -34806,7 +34823,7 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
         <v>624</v>
       </c>
@@ -34831,7 +34848,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
         <v>287</v>
       </c>
@@ -34851,7 +34868,7 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="11" t="s">
         <v>281</v>
       </c>
@@ -34871,7 +34888,7 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="11" t="s">
         <v>273</v>
       </c>
@@ -34891,7 +34908,7 @@
       <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="11" t="s">
         <v>610</v>
       </c>
@@ -34916,7 +34933,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="11" t="s">
         <v>613</v>
       </c>
@@ -34941,7 +34958,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="11" t="s">
         <v>615</v>
       </c>
@@ -34966,7 +34983,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="11" t="s">
         <v>256</v>
       </c>
@@ -34986,7 +35003,7 @@
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="11" t="s">
         <v>617</v>
       </c>
@@ -35011,7 +35028,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
         <v>619</v>
       </c>
@@ -35036,7 +35053,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A38" s="44"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="11" t="s">
         <v>242</v>
       </c>
@@ -35056,7 +35073,7 @@
       <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="11" t="s">
         <v>623</v>
       </c>
@@ -35081,7 +35098,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="44" t="s">
         <v>628</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -35103,7 +35120,7 @@
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A41" s="44"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="11" t="s">
         <v>228</v>
       </c>
@@ -35123,7 +35140,7 @@
       <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="11" t="s">
         <v>220</v>
       </c>
@@ -35145,7 +35162,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A43" s="44"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="11" t="s">
         <v>213</v>
       </c>
@@ -35165,7 +35182,7 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A44" s="44"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="11" t="s">
         <v>209</v>
       </c>
@@ -35185,7 +35202,7 @@
       <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A45" s="44"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="11" t="s">
         <v>199</v>
       </c>
@@ -35207,7 +35224,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A46" s="44"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="11" t="s">
         <v>195</v>
       </c>
@@ -35227,7 +35244,7 @@
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
         <v>187</v>
       </c>
@@ -35249,7 +35266,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A48" s="44"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="11" t="s">
         <v>180</v>
       </c>
@@ -35269,7 +35286,7 @@
       <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A49" s="44"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="11" t="s">
         <v>172</v>
       </c>
@@ -35289,7 +35306,7 @@
       <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="44" t="s">
         <v>659</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -35311,7 +35328,7 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A51" s="44"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="11" t="s">
         <v>170</v>
       </c>
@@ -35331,7 +35348,7 @@
       <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A52" s="44"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="11" t="s">
         <v>155</v>
       </c>
@@ -35351,7 +35368,7 @@
       <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="11" t="s">
         <v>148</v>
       </c>
@@ -35371,7 +35388,7 @@
       <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A54" s="44"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="11" t="s">
         <v>140</v>
       </c>
@@ -35391,7 +35408,7 @@
       <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A55" s="44"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="11" t="s">
         <v>131</v>
       </c>
@@ -35411,7 +35428,7 @@
       <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A56" s="44"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="11" t="s">
         <v>127</v>
       </c>
@@ -35431,7 +35448,7 @@
       <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A57" s="44"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="11" t="s">
         <v>117</v>
       </c>
@@ -35451,7 +35468,7 @@
       <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A58" s="44"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="11" t="s">
         <v>121</v>
       </c>
@@ -35471,7 +35488,7 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A59" s="44"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="11" t="s">
         <v>124</v>
       </c>
@@ -35491,7 +35508,7 @@
       <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A60" s="44"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="11" t="s">
         <v>112</v>
       </c>
@@ -35511,7 +35528,7 @@
       <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A61" s="44"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="11" t="s">
         <v>630</v>
       </c>
@@ -35534,7 +35551,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A62" s="44"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="11" t="s">
         <v>102</v>
       </c>
@@ -35554,7 +35571,7 @@
       <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A63" s="44"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="11" t="s">
         <v>90</v>
       </c>
@@ -35579,7 +35596,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A64" s="44"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="11" t="s">
         <v>78</v>
       </c>
@@ -35604,7 +35621,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A65" s="44"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="11" t="s">
         <v>80</v>
       </c>
@@ -35629,7 +35646,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A66" s="44"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="11" t="s">
         <v>82</v>
       </c>
@@ -35654,7 +35671,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A67" s="44"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="11" t="s">
         <v>67</v>
       </c>
@@ -35679,7 +35696,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A68" s="44"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="11" t="s">
         <v>74</v>
       </c>
@@ -35704,7 +35721,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A69" s="44"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="11" t="s">
         <v>76</v>
       </c>
@@ -35729,7 +35746,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A70" s="44"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="11" t="s">
         <v>96</v>
       </c>
@@ -35754,7 +35771,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A71" s="44"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="11" t="s">
         <v>94</v>
       </c>
@@ -35779,7 +35796,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A72" s="44"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="11" t="s">
         <v>100</v>
       </c>
@@ -35804,7 +35821,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A73" s="44"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="11" t="s">
         <v>98</v>
       </c>
@@ -35829,7 +35846,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A74" s="44"/>
+      <c r="A74" s="45"/>
       <c r="B74" s="11" t="s">
         <v>88</v>
       </c>
@@ -35854,7 +35871,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A75" s="44"/>
+      <c r="A75" s="45"/>
       <c r="B75" s="11" t="s">
         <v>84</v>
       </c>
@@ -35879,7 +35896,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A76" s="44"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="11" t="s">
         <v>92</v>
       </c>
@@ -35904,7 +35921,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A77" s="44"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="11" t="s">
         <v>632</v>
       </c>
@@ -35929,7 +35946,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A78" s="44"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="11" t="s">
         <v>48</v>
       </c>
@@ -35949,7 +35966,7 @@
       <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A79" s="44"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="11" t="s">
         <v>37</v>
       </c>
@@ -35972,7 +35989,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A80" s="45"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="11" t="s">
         <v>20</v>
       </c>
@@ -36001,11 +36018,11 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
@@ -36198,7 +36215,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>589</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -36218,7 +36235,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="11" t="s">
         <v>346</v>
       </c>
@@ -36236,7 +36253,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="11" t="s">
         <v>354</v>
       </c>
@@ -36254,39 +36271,39 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="11" t="s">
         <v>359</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>590</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="14">
         <v>42442</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="11" t="s">
         <v>363</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>591</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="14">
         <v>42439</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>368</v>
       </c>
@@ -36304,7 +36321,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>371</v>
       </c>
@@ -36322,7 +36339,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>381</v>
       </c>
@@ -36340,7 +36357,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="11" t="s">
         <v>377</v>
       </c>
@@ -36358,7 +36375,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="11" t="s">
         <v>384</v>
       </c>
@@ -36376,7 +36393,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="11" t="s">
         <v>398</v>
       </c>
@@ -36394,7 +36411,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="11" t="s">
         <v>395</v>
       </c>
@@ -36412,7 +36429,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
         <v>401</v>
       </c>
@@ -36430,7 +36447,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="11" t="s">
         <v>404</v>
       </c>
@@ -36448,7 +36465,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="11" t="s">
         <v>408</v>
       </c>
@@ -36466,7 +36483,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="11" t="s">
         <v>412</v>
       </c>
@@ -36484,7 +36501,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="11" t="s">
         <v>417</v>
       </c>
@@ -36502,7 +36519,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="44" t="s">
         <v>592</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -36522,7 +36539,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
         <v>330</v>
       </c>
@@ -36540,7 +36557,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="11" t="s">
         <v>323</v>
       </c>
@@ -36558,7 +36575,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="11" t="s">
         <v>316</v>
       </c>
@@ -36576,7 +36593,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="11" t="s">
         <v>307</v>
       </c>
@@ -36594,7 +36611,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="11" t="s">
         <v>314</v>
       </c>
@@ -36612,7 +36629,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="11" t="s">
         <v>303</v>
       </c>
@@ -36630,7 +36647,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="11" t="s">
         <v>287</v>
       </c>
@@ -36648,7 +36665,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
         <v>281</v>
       </c>
@@ -36666,7 +36683,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
         <v>273</v>
       </c>
@@ -36684,7 +36701,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
         <v>256</v>
       </c>
@@ -36702,7 +36719,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="11" t="s">
         <v>242</v>
       </c>
@@ -36720,7 +36737,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="44" t="s">
         <v>593</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -36740,7 +36757,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="11" t="s">
         <v>180</v>
       </c>
@@ -36758,7 +36775,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="11" t="s">
         <v>195</v>
       </c>
@@ -36776,7 +36793,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="11" t="s">
         <v>228</v>
       </c>
@@ -36794,7 +36811,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="11" t="s">
         <v>232</v>
       </c>
@@ -36812,55 +36829,55 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E36" s="47"/>
+      <c r="E36" s="50"/>
       <c r="F36" s="14">
         <v>42634</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
         <v>199</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E37" s="47"/>
+      <c r="E37" s="50"/>
       <c r="F37" s="14">
         <v>42604</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A38" s="44"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E38" s="47"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="14">
         <v>42579</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A39" s="44"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="11" t="s">
         <v>209</v>
       </c>
@@ -36878,7 +36895,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A40" s="44"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="11" t="s">
         <v>213</v>
       </c>
@@ -36896,7 +36913,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="44" t="s">
         <v>596</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -36916,7 +36933,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="11" t="s">
         <v>117</v>
       </c>
@@ -36934,7 +36951,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A43" s="44"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="11" t="s">
         <v>121</v>
       </c>
@@ -36952,7 +36969,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A44" s="44"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="11" t="s">
         <v>124</v>
       </c>
@@ -36970,7 +36987,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A45" s="44"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="11" t="s">
         <v>127</v>
       </c>
@@ -36988,7 +37005,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A46" s="44"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="11" t="s">
         <v>102</v>
       </c>
@@ -37006,7 +37023,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -37024,23 +37041,23 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A48" s="44"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E48" s="47"/>
+      <c r="E48" s="50"/>
       <c r="F48" s="14">
         <v>42677</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A49" s="44"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="11" t="s">
         <v>155</v>
       </c>
@@ -37058,7 +37075,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A50" s="44"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="11" t="s">
         <v>112</v>
       </c>
@@ -37076,71 +37093,77 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A51" s="44"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E51" s="47"/>
+      <c r="E51" s="50"/>
       <c r="F51" s="14">
         <v>42688</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A52" s="44"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E52" s="47"/>
+      <c r="E52" s="50"/>
       <c r="F52" s="14">
         <v>42687</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E53" s="47"/>
+      <c r="E53" s="50"/>
       <c r="F53" s="14">
         <v>42664</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A54" s="45"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="14">
         <v>42664</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A41:A54"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
@@ -37149,12 +37172,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A41:A54"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37210,7 +37227,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>622</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -37232,7 +37249,7 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="11" t="s">
         <v>408</v>
       </c>
@@ -37252,7 +37269,7 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="11" t="s">
         <v>412</v>
       </c>
@@ -37272,7 +37289,7 @@
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="11" t="s">
         <v>404</v>
       </c>
@@ -37292,7 +37309,7 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="11" t="s">
         <v>381</v>
       </c>
@@ -37312,7 +37329,7 @@
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>377</v>
       </c>
@@ -37332,7 +37349,7 @@
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>384</v>
       </c>
@@ -37352,7 +37369,7 @@
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>398</v>
       </c>
@@ -37372,7 +37389,7 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="11" t="s">
         <v>395</v>
       </c>
@@ -37392,7 +37409,7 @@
       <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="11" t="s">
         <v>401</v>
       </c>
@@ -37412,7 +37429,7 @@
       <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="11" t="s">
         <v>601</v>
       </c>
@@ -37438,7 +37455,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="11" t="s">
         <v>371</v>
       </c>
@@ -37458,7 +37475,7 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11" t="s">
         <v>368</v>
       </c>
@@ -37478,7 +37495,7 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="11" t="s">
         <v>363</v>
       </c>
@@ -37498,7 +37515,7 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="11" t="s">
         <v>359</v>
       </c>
@@ -37518,7 +37535,7 @@
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="11" t="s">
         <v>354</v>
       </c>
@@ -37538,7 +37555,7 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="11" t="s">
         <v>350</v>
       </c>
@@ -37558,7 +37575,7 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11" t="s">
         <v>346</v>
       </c>
@@ -37578,7 +37595,7 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="44" t="s">
         <v>627</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -37600,7 +37617,7 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="11" t="s">
         <v>606</v>
       </c>
@@ -37626,7 +37643,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="11" t="s">
         <v>330</v>
       </c>
@@ -37646,7 +37663,7 @@
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="11" t="s">
         <v>323</v>
       </c>
@@ -37666,7 +37683,7 @@
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="11" t="s">
         <v>316</v>
       </c>
@@ -37686,7 +37703,7 @@
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="11" t="s">
         <v>307</v>
       </c>
@@ -37706,7 +37723,7 @@
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="11" t="s">
         <v>314</v>
       </c>
@@ -37726,7 +37743,7 @@
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="11" t="s">
         <v>303</v>
       </c>
@@ -37746,7 +37763,7 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
         <v>624</v>
       </c>
@@ -37774,7 +37791,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A29" s="44"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
         <v>287</v>
       </c>
@@ -37794,7 +37811,7 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="11" t="s">
         <v>281</v>
       </c>
@@ -37814,7 +37831,7 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="11" t="s">
         <v>273</v>
       </c>
@@ -37834,7 +37851,7 @@
       <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:12" ht="27.75" thickBot="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="11" t="s">
         <v>671</v>
       </c>
@@ -37868,7 +37885,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="11" t="s">
         <v>613</v>
       </c>
@@ -37896,7 +37913,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="11" t="s">
         <v>615</v>
       </c>
@@ -37924,7 +37941,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="11" t="s">
         <v>256</v>
       </c>
@@ -37944,7 +37961,7 @@
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A36" s="44"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="11" t="s">
         <v>617</v>
       </c>
@@ -37972,7 +37989,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
         <v>619</v>
       </c>
@@ -38000,7 +38017,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A38" s="44"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="11" t="s">
         <v>242</v>
       </c>
@@ -38020,7 +38037,7 @@
       <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="11" t="s">
         <v>623</v>
       </c>
@@ -38048,7 +38065,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="44" t="s">
         <v>628</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -38070,7 +38087,7 @@
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A41" s="44"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="11" t="s">
         <v>228</v>
       </c>
@@ -38090,7 +38107,7 @@
       <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="11" t="s">
         <v>220</v>
       </c>
@@ -38115,7 +38132,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A43" s="44"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="11" t="s">
         <v>213</v>
       </c>
@@ -38135,7 +38152,7 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A44" s="44"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="11" t="s">
         <v>209</v>
       </c>
@@ -38155,7 +38172,7 @@
       <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A45" s="44"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="11" t="s">
         <v>199</v>
       </c>
@@ -38180,7 +38197,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A46" s="44"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="11" t="s">
         <v>195</v>
       </c>
@@ -38200,7 +38217,7 @@
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="11" t="s">
         <v>187</v>
       </c>
@@ -38225,7 +38242,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A48" s="44"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="11" t="s">
         <v>180</v>
       </c>
@@ -38245,7 +38262,7 @@
       <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A49" s="44"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="11" t="s">
         <v>172</v>
       </c>
@@ -38265,7 +38282,7 @@
       <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="44" t="s">
         <v>659</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -38287,7 +38304,7 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A51" s="44"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="11" t="s">
         <v>170</v>
       </c>
@@ -38307,7 +38324,7 @@
       <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A52" s="44"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="11" t="s">
         <v>155</v>
       </c>
@@ -38327,7 +38344,7 @@
       <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="11" t="s">
         <v>148</v>
       </c>
@@ -38350,7 +38367,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A54" s="44"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="11" t="s">
         <v>140</v>
       </c>
@@ -38370,7 +38387,7 @@
       <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A55" s="44"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="11" t="s">
         <v>131</v>
       </c>
@@ -38390,7 +38407,7 @@
       <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A56" s="44"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="11" t="s">
         <v>127</v>
       </c>
@@ -38410,7 +38427,7 @@
       <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A57" s="44"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="11" t="s">
         <v>117</v>
       </c>
@@ -38430,7 +38447,7 @@
       <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A58" s="44"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="11" t="s">
         <v>121</v>
       </c>
@@ -38450,7 +38467,7 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A59" s="44"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="11" t="s">
         <v>124</v>
       </c>
@@ -38470,7 +38487,7 @@
       <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A60" s="44"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="11" t="s">
         <v>112</v>
       </c>
@@ -38490,7 +38507,7 @@
       <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A61" s="44"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="11" t="s">
         <v>630</v>
       </c>
@@ -38516,7 +38533,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A62" s="44"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="11" t="s">
         <v>102</v>
       </c>
@@ -38539,7 +38556,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A63" s="44"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="11" t="s">
         <v>90</v>
       </c>
@@ -38567,7 +38584,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A64" s="44"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="11" t="s">
         <v>78</v>
       </c>
@@ -38595,7 +38612,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A65" s="44"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="11" t="s">
         <v>80</v>
       </c>
@@ -38623,7 +38640,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A66" s="44"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="11" t="s">
         <v>82</v>
       </c>
@@ -38651,7 +38668,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A67" s="44"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="11" t="s">
         <v>67</v>
       </c>
@@ -38679,7 +38696,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A68" s="44"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="11" t="s">
         <v>74</v>
       </c>
@@ -38707,7 +38724,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A69" s="44"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="11" t="s">
         <v>76</v>
       </c>
@@ -38735,7 +38752,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A70" s="44"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="11" t="s">
         <v>96</v>
       </c>
@@ -38763,7 +38780,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A71" s="44"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="11" t="s">
         <v>94</v>
       </c>
@@ -38791,7 +38808,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A72" s="44"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="11" t="s">
         <v>100</v>
       </c>
@@ -38819,7 +38836,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A73" s="44"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="11" t="s">
         <v>98</v>
       </c>
@@ -38847,7 +38864,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A74" s="44"/>
+      <c r="A74" s="45"/>
       <c r="B74" s="11" t="s">
         <v>88</v>
       </c>
@@ -38875,7 +38892,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A75" s="44"/>
+      <c r="A75" s="45"/>
       <c r="B75" s="11" t="s">
         <v>84</v>
       </c>
@@ -38903,7 +38920,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A76" s="44"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="11" t="s">
         <v>92</v>
       </c>
@@ -38931,7 +38948,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A77" s="44"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="11" t="s">
         <v>632</v>
       </c>
@@ -38959,7 +38976,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="44"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="11" t="s">
         <v>48</v>
       </c>
@@ -38979,7 +38996,7 @@
       <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A79" s="44"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="11" t="s">
         <v>37</v>
       </c>
@@ -39005,7 +39022,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A80" s="45"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="11" t="s">
         <v>20</v>
       </c>
@@ -42863,7 +42880,7 @@
       </c>
     </row>
     <row r="163" spans="2:5">
-      <c r="B163" s="50" t="s">
+      <c r="B163" s="51" t="s">
         <v>699</v>
       </c>
       <c r="C163" s="35" t="s">
@@ -42878,7 +42895,7 @@
       </c>
     </row>
     <row r="164" spans="2:5">
-      <c r="B164" s="50"/>
+      <c r="B164" s="51"/>
       <c r="C164" s="35" t="s">
         <v>700</v>
       </c>
@@ -42891,7 +42908,7 @@
       </c>
     </row>
     <row r="165" spans="2:5">
-      <c r="B165" s="50"/>
+      <c r="B165" s="51"/>
       <c r="C165" s="35" t="s">
         <v>701</v>
       </c>
@@ -42904,7 +42921,7 @@
       </c>
     </row>
     <row r="166" spans="2:5">
-      <c r="B166" s="50" t="s">
+      <c r="B166" s="51" t="s">
         <v>703</v>
       </c>
       <c r="C166" s="35" t="s">
@@ -42919,7 +42936,7 @@
       </c>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="50"/>
+      <c r="B167" s="51"/>
       <c r="C167" s="35" t="s">
         <v>709</v>
       </c>
@@ -43501,8 +43518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="P215" sqref="P215"/>
+    <sheetView tabSelected="1" topLeftCell="C72" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43692,7 +43709,7 @@
         <v>0.7</v>
       </c>
       <c r="E23" s="32">
-        <f>D23/$D$31</f>
+        <f t="shared" ref="E23:E30" si="0">D23/$D$31</f>
         <v>1.7226528854435829E-3</v>
       </c>
     </row>
@@ -43707,7 +43724,7 @@
         <v>1.23</v>
       </c>
       <c r="E24" s="32">
-        <f>D24/$D$31</f>
+        <f t="shared" si="0"/>
         <v>3.0269472129937245E-3</v>
       </c>
     </row>
@@ -43722,7 +43739,7 @@
         <v>10.72</v>
       </c>
       <c r="E25" s="32">
-        <f>D25/$D$31</f>
+        <f t="shared" si="0"/>
         <v>2.6381198474221729E-2</v>
       </c>
     </row>
@@ -43737,7 +43754,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="32">
-        <f>D26/$D$31</f>
+        <f t="shared" si="0"/>
         <v>3.9374923095853324E-2</v>
       </c>
     </row>
@@ -43752,7 +43769,7 @@
         <v>34</v>
       </c>
       <c r="E27" s="32">
-        <f>D27/$D$31</f>
+        <f t="shared" si="0"/>
         <v>8.3671711578688315E-2</v>
       </c>
     </row>
@@ -43767,7 +43784,7 @@
         <v>69.5</v>
       </c>
       <c r="E28" s="32">
-        <f>D28/$D$31</f>
+        <f t="shared" si="0"/>
         <v>0.17103482219761287</v>
       </c>
     </row>
@@ -43782,7 +43799,7 @@
         <v>110.5</v>
       </c>
       <c r="E29" s="32">
-        <f>D29/$D$31</f>
+        <f t="shared" si="0"/>
         <v>0.27193306263073702</v>
       </c>
     </row>
@@ -43797,7 +43814,7 @@
         <v>163.69999999999999</v>
       </c>
       <c r="E30" s="32">
-        <f>D30/$D$31</f>
+        <f t="shared" si="0"/>
         <v>0.40285468192444934</v>
       </c>
     </row>
@@ -43836,7 +43853,7 @@
       <c r="C75">
         <v>3</v>
       </c>
-      <c r="D75" s="51">
+      <c r="D75" s="41">
         <v>1.52</v>
       </c>
     </row>
@@ -43850,7 +43867,7 @@
       <c r="C76">
         <v>14</v>
       </c>
-      <c r="D76" s="51">
+      <c r="D76" s="41">
         <v>3.12</v>
       </c>
     </row>
@@ -43864,7 +43881,7 @@
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" s="51">
+      <c r="D77" s="41">
         <v>14</v>
       </c>
     </row>
@@ -43878,7 +43895,7 @@
       <c r="C78">
         <v>4</v>
       </c>
-      <c r="D78" s="51">
+      <c r="D78" s="41">
         <v>41</v>
       </c>
     </row>
@@ -43892,7 +43909,7 @@
       <c r="C79">
         <v>5</v>
       </c>
-      <c r="D79" s="51">
+      <c r="D79" s="41">
         <v>41.8</v>
       </c>
     </row>
@@ -43906,7 +43923,7 @@
       <c r="C80">
         <v>30</v>
       </c>
-      <c r="D80" s="51">
+      <c r="D80" s="41">
         <v>147.71</v>
       </c>
     </row>
@@ -43920,17 +43937,17 @@
       <c r="C81">
         <v>22</v>
       </c>
-      <c r="D81" s="51">
+      <c r="D81" s="41">
         <v>157.19999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="C82">
-        <f ca="1">SUM(C75:C82)</f>
+        <f>SUM(C75:C81)</f>
         <v>79</v>
       </c>
-      <c r="D82" s="51">
-        <f ca="1">SUM(D75:D82)</f>
+      <c r="D82" s="41">
+        <f>SUM(D75:D81)</f>
         <v>406.35</v>
       </c>
     </row>
@@ -44542,7 +44559,7 @@
       </c>
     </row>
     <row r="166" spans="2:11">
-      <c r="B166" s="50" t="s">
+      <c r="B166" s="51" t="s">
         <v>699</v>
       </c>
       <c r="C166" s="37" t="s">
@@ -44569,7 +44586,7 @@
       </c>
     </row>
     <row r="167" spans="2:11">
-      <c r="B167" s="50"/>
+      <c r="B167" s="51"/>
       <c r="C167" s="37" t="s">
         <v>700</v>
       </c>
@@ -44577,7 +44594,7 @@
         <v>17</v>
       </c>
       <c r="E167" s="38">
-        <f t="shared" ref="E167:E172" si="0">D167/$D$173</f>
+        <f t="shared" ref="E167:E172" si="1">D167/$D$173</f>
         <v>0.21518987341772153</v>
       </c>
       <c r="H167">
@@ -44594,7 +44611,7 @@
       </c>
     </row>
     <row r="168" spans="2:11">
-      <c r="B168" s="50"/>
+      <c r="B168" s="51"/>
       <c r="C168" s="37" t="s">
         <v>701</v>
       </c>
@@ -44602,7 +44619,7 @@
         <v>9</v>
       </c>
       <c r="E168" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11392405063291139</v>
       </c>
       <c r="H168">
@@ -44619,7 +44636,7 @@
       </c>
     </row>
     <row r="169" spans="2:11">
-      <c r="B169" s="50" t="s">
+      <c r="B169" s="51" t="s">
         <v>703</v>
       </c>
       <c r="C169" s="37" t="s">
@@ -44629,7 +44646,7 @@
         <v>9</v>
       </c>
       <c r="E169" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11392405063291139</v>
       </c>
       <c r="H169">
@@ -44646,7 +44663,7 @@
       </c>
     </row>
     <row r="170" spans="2:11">
-      <c r="B170" s="50"/>
+      <c r="B170" s="51"/>
       <c r="C170" s="37" t="s">
         <v>709</v>
       </c>
@@ -44654,7 +44671,7 @@
         <v>1</v>
       </c>
       <c r="E170" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="H170">
@@ -44681,7 +44698,7 @@
         <v>2</v>
       </c>
       <c r="E171" s="40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5316455696202531E-2</v>
       </c>
     </row>
@@ -44694,7 +44711,7 @@
         <v>22</v>
       </c>
       <c r="E172" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27848101265822783</v>
       </c>
     </row>

--- a/违约债券报表.xlsx
+++ b/违约债券报表.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="730">
   <si>
     <t>代码</t>
   </si>
@@ -3139,10 +3139,6 @@
   </si>
   <si>
     <t>违约数量(右)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>违约金额(左)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3524,16 +3520,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3596,6 +3592,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3648,6 +3645,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2014-2016统计'!$B$3:$B$8</c:f>
@@ -3713,8 +3768,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="659603400"/>
-        <c:axId val="661465928"/>
+        <c:axId val="664249112"/>
+        <c:axId val="664249896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3815,11 +3870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="661466712"/>
-        <c:axId val="661466320"/>
+        <c:axId val="664250680"/>
+        <c:axId val="664250288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="659603400"/>
+        <c:axId val="664249112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3862,7 +3917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661465928"/>
+        <c:crossAx val="664249896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3870,7 +3925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="661465928"/>
+        <c:axId val="664249896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,12 +3976,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659603400"/>
+        <c:crossAx val="664249112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661466320"/>
+        <c:axId val="664250288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,12 +4018,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661466712"/>
+        <c:crossAx val="664250680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="661466712"/>
+        <c:axId val="664250680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +4033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661466320"/>
+        <c:crossAx val="664250288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4115,6 +4170,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4214,6 +4270,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4333,8 +4390,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="665497136"/>
-        <c:axId val="665497528"/>
+        <c:axId val="662829656"/>
+        <c:axId val="662830048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -4479,11 +4536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="665498312"/>
-        <c:axId val="665497920"/>
+        <c:axId val="662505184"/>
+        <c:axId val="662830440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="665497136"/>
+        <c:axId val="662829656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4526,7 +4583,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665497528"/>
+        <c:crossAx val="662830048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4534,7 +4591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="665497528"/>
+        <c:axId val="662830048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4585,12 +4642,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665497136"/>
+        <c:crossAx val="662829656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="665497920"/>
+        <c:axId val="662830440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4627,12 +4684,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665498312"/>
+        <c:crossAx val="662505184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="665498312"/>
+        <c:axId val="662505184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4642,7 +4699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="665497920"/>
+        <c:crossAx val="662830440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4659,6 +4716,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4759,12 +4817,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>2016</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
-              <a:t>历年债券违约类别统计</a:t>
+              <a:t>年债券违约数量按类别统计</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4992,6 +5055,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5057,6 +5121,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5122,6 +5187,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5293,6 +5359,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5358,11 +5425,13 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -5417,11 +5486,13 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -5476,6 +5547,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5674,12 +5746,27 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>2016</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
-              <a:t>历年债券违约类别金额统计</a:t>
+              <a:t>年债券违约金额按</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>类别</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>统计</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5861,7 +5948,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5906,7 +5995,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5925,7 +6016,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6054,6 +6147,7 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -6213,8 +6307,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2016</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>历年违约主体公司属性统计</a:t>
+              <a:t>年违约主体公司属性统计</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6408,8 +6506,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="664231792"/>
-        <c:axId val="664232184"/>
+        <c:axId val="662506752"/>
+        <c:axId val="662507144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6523,11 +6621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="664232968"/>
-        <c:axId val="664232576"/>
+        <c:axId val="662507928"/>
+        <c:axId val="662507536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="664231792"/>
+        <c:axId val="662506752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,7 +6668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664232184"/>
+        <c:crossAx val="662507144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6578,7 +6676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664232184"/>
+        <c:axId val="662507144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6629,12 +6727,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664231792"/>
+        <c:crossAx val="662506752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="664232576"/>
+        <c:axId val="662507536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6671,12 +6769,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664232968"/>
+        <c:crossAx val="662507928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="664232968"/>
+        <c:axId val="662507928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6686,7 +6784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664232576"/>
+        <c:crossAx val="662507536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6814,8 +6912,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26111111111111113"/>
-          <c:y val="6.2537768510203443E-2"/>
+          <c:x val="0.26111117946194223"/>
+          <c:y val="3.3393864940572442E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6989,8 +7087,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="664233752"/>
-        <c:axId val="664234144"/>
+        <c:axId val="662508712"/>
+        <c:axId val="666314600"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -7122,11 +7220,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="664234928"/>
-        <c:axId val="664234536"/>
+        <c:axId val="666315384"/>
+        <c:axId val="666314992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="664233752"/>
+        <c:axId val="662508712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7169,7 +7267,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664234144"/>
+        <c:crossAx val="666314600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7178,7 +7276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664234144"/>
+        <c:axId val="666314600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7229,12 +7327,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664233752"/>
+        <c:crossAx val="662508712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="664234536"/>
+        <c:axId val="666314992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7271,12 +7369,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664234928"/>
+        <c:crossAx val="666315384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="664234928"/>
+        <c:axId val="666315384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7286,7 +7384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664234536"/>
+        <c:crossAx val="666314992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7302,17 +7400,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14740048118985127"/>
-          <c:y val="0.35243000874890634"/>
-          <c:w val="0.47411023622047244"/>
-          <c:h val="8.1967802488476307E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7413,12 +7502,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2016</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>历年违约债券数量按地区统计</a:t>
+              <a:t>年违约债券数量按地区统计</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7535,6 +7629,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7688,8 +7783,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="664235712"/>
-        <c:axId val="664236104"/>
+        <c:axId val="666316168"/>
+        <c:axId val="666316560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7774,7 +7869,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7792,7 +7889,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7973,11 +8072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="664236888"/>
-        <c:axId val="664236496"/>
+        <c:axId val="666317344"/>
+        <c:axId val="666316952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="664235712"/>
+        <c:axId val="666316168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8020,7 +8119,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664236104"/>
+        <c:crossAx val="666316560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8028,7 +8127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664236104"/>
+        <c:axId val="666316560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8079,12 +8178,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664235712"/>
+        <c:crossAx val="666316168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="664236496"/>
+        <c:axId val="666316952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8121,12 +8220,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664236888"/>
+        <c:crossAx val="666317344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="664236888"/>
+        <c:axId val="666317344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8136,7 +8235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664236496"/>
+        <c:crossAx val="666316952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8153,6 +8252,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8253,12 +8353,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2016</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>历年违约债券按主管单位统计</a:t>
+              <a:t>年违约债券按主管单位统计</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8369,6 +8474,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8439,8 +8545,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="664237672"/>
-        <c:axId val="664238064"/>
+        <c:axId val="666318128"/>
+        <c:axId val="666318520"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -8509,6 +8615,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8559,11 +8666,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="664238848"/>
-        <c:axId val="664238456"/>
+        <c:axId val="666319304"/>
+        <c:axId val="666318912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="664237672"/>
+        <c:axId val="666318128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8606,7 +8713,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664238064"/>
+        <c:crossAx val="666318520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8614,7 +8721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664238064"/>
+        <c:axId val="666318520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8665,12 +8772,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664237672"/>
+        <c:crossAx val="666318128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="664238456"/>
+        <c:axId val="666318912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8707,12 +8814,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664238848"/>
+        <c:crossAx val="666319304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="664238848"/>
+        <c:axId val="666319304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8721,7 +8828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664238456"/>
+        <c:crossAx val="666318912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8738,6 +8845,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8838,12 +8946,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2016</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>历年违约债券行业统计</a:t>
+              <a:t>年违约债券行业统计</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9272,8 +9385,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="663882088"/>
-        <c:axId val="663882480"/>
+        <c:axId val="666595240"/>
+        <c:axId val="666595632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9332,7 +9445,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9549,11 +9664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="663883264"/>
-        <c:axId val="663882872"/>
+        <c:axId val="666596416"/>
+        <c:axId val="666596024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="663882088"/>
+        <c:axId val="666595240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9596,7 +9711,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663882480"/>
+        <c:crossAx val="666595632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9604,7 +9719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663882480"/>
+        <c:axId val="666595632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9655,12 +9770,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663882088"/>
+        <c:crossAx val="666595240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="663882872"/>
+        <c:axId val="666596024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9697,12 +9812,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663883264"/>
+        <c:crossAx val="666596416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="663883264"/>
+        <c:axId val="666596416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9712,7 +9827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="663882872"/>
+        <c:crossAx val="666596024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9729,6 +9844,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9829,12 +9945,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2016</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>历年违约主体发行评级</a:t>
+              <a:t>年违约主体发行评级</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9935,6 +10056,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10011,8 +10133,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="663884048"/>
-        <c:axId val="663883656"/>
+        <c:axId val="666597200"/>
+        <c:axId val="666596808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10026,7 +10148,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>违约金额(左)</c:v>
+                  <c:v>违约金额(亿元)(左)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10094,6 +10216,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10171,11 +10294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="663880128"/>
-        <c:axId val="663879736"/>
+        <c:axId val="666320480"/>
+        <c:axId val="666320088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="663880128"/>
+        <c:axId val="666320480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10218,7 +10341,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663879736"/>
+        <c:crossAx val="666320088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10226,7 +10349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663879736"/>
+        <c:axId val="666320088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10277,12 +10400,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663880128"/>
+        <c:crossAx val="666320480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="663883656"/>
+        <c:axId val="666596808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10319,12 +10442,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663884048"/>
+        <c:crossAx val="666597200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="663884048"/>
+        <c:axId val="666597200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10334,7 +10457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="663883656"/>
+        <c:crossAx val="666596808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10351,6 +10474,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10457,6 +10581,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10698,6 +10823,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10763,6 +10889,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10828,6 +10955,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10983,6 +11111,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11048,11 +11177,13 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11107,11 +11238,13 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11166,11 +11299,13 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11225,6 +11360,7 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11435,6 +11571,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11630,7 +11767,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11675,7 +11814,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11694,7 +11835,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11972,6 +12115,7 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
+                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -12143,6 +12287,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12234,6 +12379,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12328,8 +12474,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="664010424"/>
-        <c:axId val="664010816"/>
+        <c:axId val="663484072"/>
+        <c:axId val="663484464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12437,11 +12583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="664011600"/>
-        <c:axId val="664011208"/>
+        <c:axId val="663485248"/>
+        <c:axId val="663484856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="664010424"/>
+        <c:axId val="663484072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12484,7 +12630,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664010816"/>
+        <c:crossAx val="663484464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12492,7 +12638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664010816"/>
+        <c:axId val="663484464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12543,12 +12689,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664010424"/>
+        <c:crossAx val="663484072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="664011208"/>
+        <c:axId val="663484856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12585,12 +12731,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664011600"/>
+        <c:crossAx val="663485248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="664011600"/>
+        <c:axId val="663485248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12599,7 +12745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664011208"/>
+        <c:crossAx val="663484856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12800,6 +12946,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12869,8 +13016,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="664012384"/>
-        <c:axId val="664012776"/>
+        <c:axId val="663486032"/>
+        <c:axId val="663486424"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -12943,11 +13090,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="664013560"/>
-        <c:axId val="664013168"/>
+        <c:axId val="664251856"/>
+        <c:axId val="663486816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="664012384"/>
+        <c:axId val="663486032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12990,7 +13137,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664012776"/>
+        <c:crossAx val="663486424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12999,7 +13146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664012776"/>
+        <c:axId val="663486424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13050,12 +13197,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664012384"/>
+        <c:crossAx val="663486032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="664013168"/>
+        <c:axId val="663486816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13092,12 +13239,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664013560"/>
+        <c:crossAx val="664251856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="664013560"/>
+        <c:axId val="664251856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13107,7 +13254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664013168"/>
+        <c:crossAx val="663486816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13544,11 +13691,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="664053688"/>
-        <c:axId val="664054080"/>
+        <c:axId val="660728888"/>
+        <c:axId val="662803288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="664053688"/>
+        <c:axId val="660728888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13591,7 +13738,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664054080"/>
+        <c:crossAx val="662803288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13599,7 +13746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664054080"/>
+        <c:axId val="662803288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13650,7 +13797,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664053688"/>
+        <c:crossAx val="660728888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13911,8 +14058,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="661469064"/>
-        <c:axId val="661468672"/>
+        <c:axId val="662804072"/>
+        <c:axId val="662804464"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -14023,11 +14170,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="661467888"/>
-        <c:axId val="661468280"/>
+        <c:axId val="662805248"/>
+        <c:axId val="662804856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="661469064"/>
+        <c:axId val="662804072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14070,7 +14217,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661468672"/>
+        <c:crossAx val="662804464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14078,7 +14225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="661468672"/>
+        <c:axId val="662804464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14129,12 +14276,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661469064"/>
+        <c:crossAx val="662804072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661468280"/>
+        <c:axId val="662804856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14171,12 +14318,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661467888"/>
+        <c:crossAx val="662805248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="661467888"/>
+        <c:axId val="662805248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14185,7 +14332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661468280"/>
+        <c:crossAx val="662804856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14807,8 +14954,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="664053296"/>
-        <c:axId val="664055256"/>
+        <c:axId val="662806032"/>
+        <c:axId val="662806424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15054,11 +15201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="664056040"/>
-        <c:axId val="664055648"/>
+        <c:axId val="662826912"/>
+        <c:axId val="662806816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="664053296"/>
+        <c:axId val="662806032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15101,7 +15248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664055256"/>
+        <c:crossAx val="662806424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15109,7 +15256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664055256"/>
+        <c:axId val="662806424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15160,12 +15307,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664053296"/>
+        <c:crossAx val="662806032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="664055648"/>
+        <c:axId val="662806816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15202,12 +15349,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664056040"/>
+        <c:crossAx val="662826912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="664056040"/>
+        <c:axId val="662826912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15217,7 +15364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664055648"/>
+        <c:crossAx val="662806816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15350,6 +15497,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15450,6 +15598,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15538,8 +15687,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="665496352"/>
-        <c:axId val="665495960"/>
+        <c:axId val="662828872"/>
+        <c:axId val="662828480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15621,6 +15770,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15710,11 +15860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="664056824"/>
-        <c:axId val="665495568"/>
+        <c:axId val="662827696"/>
+        <c:axId val="662828088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="664056824"/>
+        <c:axId val="662827696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15757,7 +15907,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665495568"/>
+        <c:crossAx val="662828088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15765,7 +15915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="665495568"/>
+        <c:axId val="662828088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15816,12 +15966,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664056824"/>
+        <c:crossAx val="662827696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="665495960"/>
+        <c:axId val="662828480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15858,12 +16008,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665496352"/>
+        <c:crossAx val="662828872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="665496352"/>
+        <c:axId val="662828872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15873,7 +16023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="665495960"/>
+        <c:crossAx val="662828480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -36278,10 +36428,10 @@
       <c r="C5" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="49" t="s">
         <v>590</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="14">
         <v>42442</v>
       </c>
@@ -36294,10 +36444,10 @@
       <c r="C6" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="49" t="s">
         <v>591</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="14">
         <v>42439</v>
       </c>
@@ -36836,10 +36986,10 @@
       <c r="C36" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="E36" s="50"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="14">
         <v>42634</v>
       </c>
@@ -36852,10 +37002,10 @@
       <c r="C37" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="14">
         <v>42604</v>
       </c>
@@ -36868,10 +37018,10 @@
       <c r="C38" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="E38" s="50"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="14">
         <v>42579</v>
       </c>
@@ -37048,10 +37198,10 @@
       <c r="C48" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="E48" s="50"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="14">
         <v>42677</v>
       </c>
@@ -37100,10 +37250,10 @@
       <c r="C51" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="E51" s="50"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="14">
         <v>42688</v>
       </c>
@@ -37116,10 +37266,10 @@
       <c r="C52" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="E52" s="50"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="14">
         <v>42687</v>
       </c>
@@ -37132,10 +37282,10 @@
       <c r="C53" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="E53" s="50"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="14">
         <v>42664</v>
       </c>
@@ -37148,22 +37298,16 @@
       <c r="C54" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="E54" s="50"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="14">
         <v>42664</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A41:A54"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
@@ -37172,6 +37316,12 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A41:A54"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41996,8 +42146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E220"/>
   <sheetViews>
-    <sheetView topLeftCell="B188" workbookViewId="0">
-      <selection activeCell="H170" sqref="H170"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43518,15 +43668,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C72" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -45180,10 +45330,10 @@
         <v>7</v>
       </c>
       <c r="C216" s="31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D216" s="31" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="217" spans="1:4">

--- a/违约债券报表.xlsx
+++ b/违约债券报表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AllDefault" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
     <sheet name="2014-2016统计" sheetId="6" r:id="rId7"/>
     <sheet name="2016年" sheetId="8" r:id="rId8"/>
+    <sheet name="2017年" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,8 +31,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>洪明华</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>洪明华:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不重复违约债券主体</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="735">
   <si>
     <t>代码</t>
   </si>
@@ -3126,10 +3163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>违约主体数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>违约金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3143,6 +3176,30 @@
   </si>
   <si>
     <t>违约债券数量(右)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>违约债券数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issuer_CNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券主体数量(右)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行主体数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>违约金额(亿)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3154,7 +3211,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3232,6 +3289,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3271,7 +3343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3372,13 +3444,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3505,6 +3588,12 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3592,7 +3681,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3630,14 +3718,14 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>债券违约余额(亿)</c:v>
+            <c:v>债券主体数量(右)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3675,6 +3763,7 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3684,7 +3773,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3732,7 +3820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2014-2016统计'!$D$3:$D$8</c:f>
+              <c:f>'2014-2016统计'!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3746,13 +3834,142 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>126.1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>406.35</c:v>
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>债券违约数量(右)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2014-2016统计'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2014-2016统计'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3767,23 +3984,22 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="664249112"/>
-        <c:axId val="664249896"/>
+        <c:axId val="1547561584"/>
+        <c:axId val="1547561976"/>
       </c:barChart>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>债券违约只数</c:v>
+            <c:v>债券违约余额(亿)(左)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3794,16 +4010,74 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'2014-2016统计'!$B$3:$B$8</c:f>
@@ -3833,7 +4107,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2014-2016统计'!$C$3:$C$8</c:f>
+              <c:f>'2014-2016统计'!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3847,13 +4121,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>126.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79</c:v>
+                  <c:v>406.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3870,11 +4144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="664250680"/>
-        <c:axId val="664250288"/>
+        <c:axId val="1547562760"/>
+        <c:axId val="1547562368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="664249112"/>
+        <c:axId val="1547562760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,7 +4191,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664249896"/>
+        <c:crossAx val="1547562368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3925,7 +4199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="664249896"/>
+        <c:axId val="1547562368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3976,12 +4250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664249112"/>
+        <c:crossAx val="1547562760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="664250288"/>
+        <c:axId val="1547561976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4018,12 +4292,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664250680"/>
+        <c:crossAx val="1547561584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="664250680"/>
+        <c:axId val="1547561584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,7 +4307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664250288"/>
+        <c:crossAx val="1547561976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4049,17 +4323,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12240048118985127"/>
-          <c:y val="0.34780037911927675"/>
-          <c:w val="0.56819991251093616"/>
-          <c:h val="7.8125546806649182E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4170,7 +4434,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4208,8 +4471,361 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>债券主体数量(右)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2016年'!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201609</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201610</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201611</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2016年'!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2016年'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>债券违约数量(右)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2016年'!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201609</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201610</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201611</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2016年'!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2015426040"/>
+        <c:axId val="2015425648"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'2016年'!$D$2</c:f>
@@ -4222,15 +4838,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -4270,7 +4900,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4379,151 +5008,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="662829656"/>
-        <c:axId val="662830048"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2016年'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>债券违约数量(右)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2016年'!$B$3:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>201601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>201602</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>201603</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>201604</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>201606</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>201607</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201609</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>201610</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201611</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>201612</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2016年'!$C$3:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -4536,11 +5020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="662505184"/>
-        <c:axId val="662830440"/>
+        <c:axId val="2015424864"/>
+        <c:axId val="2015425256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="662829656"/>
+        <c:axId val="2015424864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,7 +5067,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662830048"/>
+        <c:crossAx val="2015425256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4591,7 +5075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662830048"/>
+        <c:axId val="2015425256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4611,7 +5095,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4642,12 +5126,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662829656"/>
+        <c:crossAx val="2015424864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="662830440"/>
+        <c:axId val="2015425648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4684,12 +5168,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662505184"/>
+        <c:crossAx val="2015426040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="662505184"/>
+        <c:axId val="2015426040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4699,7 +5183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="662830440"/>
+        <c:crossAx val="2015425648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4716,7 +5200,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4827,7 +5310,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5055,7 +5537,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5121,7 +5602,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5187,7 +5667,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5359,7 +5838,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5425,13 +5903,11 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -5486,13 +5962,11 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -5547,7 +6021,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5766,7 +6239,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5948,9 +6420,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5995,9 +6465,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6016,9 +6484,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6147,7 +6613,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -6317,7 +6782,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6363,7 +6827,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>违约主体数量</c:v>
+                  <c:v>违约债券数量</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6417,7 +6881,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6506,8 +6969,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="662506752"/>
-        <c:axId val="662507144"/>
+        <c:axId val="2015427608"/>
+        <c:axId val="2015428000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6621,11 +7084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="662507928"/>
-        <c:axId val="662507536"/>
+        <c:axId val="1550834096"/>
+        <c:axId val="1550834488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="662506752"/>
+        <c:axId val="2015427608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6668,7 +7131,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662507144"/>
+        <c:crossAx val="2015428000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6676,7 +7139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662507144"/>
+        <c:axId val="2015428000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6727,12 +7190,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662506752"/>
+        <c:crossAx val="2015427608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="662507536"/>
+        <c:axId val="1550834488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6769,12 +7232,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662507928"/>
+        <c:crossAx val="1550834096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="662507928"/>
+        <c:axId val="1550834096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6784,7 +7247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="662507536"/>
+        <c:crossAx val="1550834488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6801,7 +7264,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7017,7 +7479,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7087,8 +7548,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="662508712"/>
-        <c:axId val="666314600"/>
+        <c:axId val="1550833312"/>
+        <c:axId val="1550832920"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -7150,7 +7611,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7220,11 +7680,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="666315384"/>
-        <c:axId val="666314992"/>
+        <c:axId val="1550839584"/>
+        <c:axId val="1550841544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="662508712"/>
+        <c:axId val="1550833312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7267,7 +7727,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666314600"/>
+        <c:crossAx val="1550832920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7276,7 +7736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="666314600"/>
+        <c:axId val="1550832920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7327,12 +7787,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662508712"/>
+        <c:crossAx val="1550833312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666314992"/>
+        <c:axId val="1550841544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7369,12 +7829,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666315384"/>
+        <c:crossAx val="1550839584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="666315384"/>
+        <c:axId val="1550839584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7384,7 +7844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="666314992"/>
+        <c:crossAx val="1550841544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7401,7 +7861,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7512,7 +7971,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7629,7 +8087,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7783,8 +8240,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="666316168"/>
-        <c:axId val="666316560"/>
+        <c:axId val="1550838800"/>
+        <c:axId val="1550844680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7869,9 +8326,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7889,9 +8344,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8072,11 +8525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="666317344"/>
-        <c:axId val="666316952"/>
+        <c:axId val="1550843896"/>
+        <c:axId val="1550844288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="666316168"/>
+        <c:axId val="1550838800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8119,7 +8572,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666316560"/>
+        <c:crossAx val="1550844680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8127,7 +8580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="666316560"/>
+        <c:axId val="1550844680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8178,12 +8631,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666316168"/>
+        <c:crossAx val="1550838800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666316952"/>
+        <c:axId val="1550844288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8220,12 +8673,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666317344"/>
+        <c:crossAx val="1550843896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="666317344"/>
+        <c:axId val="1550843896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8235,7 +8688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="666316952"/>
+        <c:crossAx val="1550844288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8252,7 +8705,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8363,7 +8815,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8474,7 +8925,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8545,8 +8995,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="666318128"/>
-        <c:axId val="666318520"/>
+        <c:axId val="1550841936"/>
+        <c:axId val="1550840368"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -8615,7 +9065,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8666,11 +9115,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="666319304"/>
-        <c:axId val="666318912"/>
+        <c:axId val="1550834880"/>
+        <c:axId val="1550835272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="666318128"/>
+        <c:axId val="1550841936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8713,7 +9162,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666318520"/>
+        <c:crossAx val="1550840368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8721,7 +9170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="666318520"/>
+        <c:axId val="1550840368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8772,12 +9221,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666318128"/>
+        <c:crossAx val="1550841936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666318912"/>
+        <c:axId val="1550835272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8814,12 +9263,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666319304"/>
+        <c:crossAx val="1550834880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="666319304"/>
+        <c:axId val="1550834880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8828,7 +9277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="666318912"/>
+        <c:crossAx val="1550835272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8845,7 +9294,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9385,8 +9833,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="666595240"/>
-        <c:axId val="666595632"/>
+        <c:axId val="1325708904"/>
+        <c:axId val="1325715176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9664,11 +10112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="666596416"/>
-        <c:axId val="666596024"/>
+        <c:axId val="1325714392"/>
+        <c:axId val="1325714784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="666595240"/>
+        <c:axId val="1325708904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9711,7 +10159,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666595632"/>
+        <c:crossAx val="1325715176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9719,7 +10167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="666595632"/>
+        <c:axId val="1325715176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9770,12 +10218,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666595240"/>
+        <c:crossAx val="1325708904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666596024"/>
+        <c:axId val="1325714784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9812,12 +10260,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666596416"/>
+        <c:crossAx val="1325714392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="666596416"/>
+        <c:axId val="1325714392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9827,7 +10275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="666596024"/>
+        <c:crossAx val="1325714784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10081,19 +10529,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>无评级</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>A-</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>AA-</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>AA</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>AA+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AA-</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>无评级</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10105,19 +10553,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10133,8 +10581,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="666597200"/>
-        <c:axId val="666596808"/>
+        <c:axId val="1684681016"/>
+        <c:axId val="1684682192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10241,19 +10689,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>无评级</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>A-</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>AA-</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>AA</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>AA+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AA-</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>无评级</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10265,19 +10713,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>12.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>137.69999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>154.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10294,11 +10742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="666320480"/>
-        <c:axId val="666320088"/>
+        <c:axId val="1325713216"/>
+        <c:axId val="1325711256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="666320480"/>
+        <c:axId val="1325713216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10341,7 +10789,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666320088"/>
+        <c:crossAx val="1325711256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10349,7 +10797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="666320088"/>
+        <c:axId val="1325711256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10400,12 +10848,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666320480"/>
+        <c:crossAx val="1325713216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666596808"/>
+        <c:axId val="1684682192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10442,12 +10890,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666597200"/>
+        <c:crossAx val="1684681016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="666597200"/>
+        <c:axId val="1684681016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10457,8 +10905,1151 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="666596808"/>
+        <c:crossAx val="1684682192"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2017</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>一季度违约债券统计</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017年'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>债券数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>201501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201510</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>201603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>201604</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>201605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>201606</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>201607</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201608</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>201609</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201610</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>201611</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>201612</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>201701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>201702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017年'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>发行主体数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>201501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201510</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>201603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>201604</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>201605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>201606</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>201607</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201608</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>201609</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201610</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>201611</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>201612</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>201701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>201702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年'!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1705927144"/>
+        <c:axId val="1705928712"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017年'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>违约金额(亿)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2691185055458434E-2"/>
+                  <c:y val="-0.17567561336610152"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2691185055458434E-2"/>
+                  <c:y val="-0.18468461917974777"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2691185055458261E-2"/>
+                  <c:y val="-0.27477467731621014"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2017年'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>201501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201510</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>201602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>201603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>201604</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>201605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>201606</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>201607</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201608</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>201609</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201610</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>201611</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>201612</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>201701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>201702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>201703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017年'!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2018176360"/>
+        <c:axId val="2018177928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1705927144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705928712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1705928712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705927144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2018177928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2018176360"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2018176360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2018177928"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -10581,7 +12172,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10823,7 +12413,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10889,7 +12478,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10955,7 +12543,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11111,7 +12698,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11177,13 +12763,11 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11238,13 +12822,11 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11299,13 +12881,11 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11360,7 +12940,6 @@
                       <a:noFill/>
                     </a:ln>
                   </c15:spPr>
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11571,7 +13150,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11767,9 +13345,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11814,9 +13390,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11835,9 +13409,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12115,7 +13687,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -12287,7 +13858,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12379,7 +13949,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12474,8 +14043,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="663484072"/>
-        <c:axId val="663484464"/>
+        <c:axId val="2015414280"/>
+        <c:axId val="2015416240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12583,11 +14152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="663485248"/>
-        <c:axId val="663484856"/>
+        <c:axId val="2015415848"/>
+        <c:axId val="2015413888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="663484072"/>
+        <c:axId val="2015414280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12630,7 +14199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663484464"/>
+        <c:crossAx val="2015416240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12638,7 +14207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663484464"/>
+        <c:axId val="2015416240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12689,12 +14258,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663484072"/>
+        <c:crossAx val="2015414280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="663484856"/>
+        <c:axId val="2015413888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12731,12 +14300,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663485248"/>
+        <c:crossAx val="2015415848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="663485248"/>
+        <c:axId val="2015415848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12745,7 +14314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="663484856"/>
+        <c:crossAx val="2015413888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12946,7 +14515,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13016,8 +14584,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="663486032"/>
-        <c:axId val="663486424"/>
+        <c:axId val="2015414672"/>
+        <c:axId val="2015415456"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -13090,11 +14658,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="664251856"/>
-        <c:axId val="663486816"/>
+        <c:axId val="2015417024"/>
+        <c:axId val="2015416632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="663486032"/>
+        <c:axId val="2015414672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13137,7 +14705,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663486424"/>
+        <c:crossAx val="2015415456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13146,7 +14714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663486424"/>
+        <c:axId val="2015415456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13197,12 +14765,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663486032"/>
+        <c:crossAx val="2015414672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="663486816"/>
+        <c:axId val="2015416632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13239,12 +14807,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664251856"/>
+        <c:crossAx val="2015417024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="664251856"/>
+        <c:axId val="2015417024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13254,7 +14822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="663486816"/>
+        <c:crossAx val="2015416632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13691,11 +15259,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="660728888"/>
-        <c:axId val="662803288"/>
+        <c:axId val="2015417808"/>
+        <c:axId val="2015418200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="660728888"/>
+        <c:axId val="2015417808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13738,7 +15306,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662803288"/>
+        <c:crossAx val="2015418200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13746,7 +15314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662803288"/>
+        <c:axId val="2015418200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13797,7 +15365,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660728888"/>
+        <c:crossAx val="2015417808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14058,8 +15626,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="662804072"/>
-        <c:axId val="662804464"/>
+        <c:axId val="2015418984"/>
+        <c:axId val="2015419376"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -14170,11 +15738,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="662805248"/>
-        <c:axId val="662804856"/>
+        <c:axId val="2015420160"/>
+        <c:axId val="2015419768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="662804072"/>
+        <c:axId val="2015418984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14217,7 +15785,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662804464"/>
+        <c:crossAx val="2015419376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14225,7 +15793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662804464"/>
+        <c:axId val="2015419376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14276,12 +15844,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662804072"/>
+        <c:crossAx val="2015418984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="662804856"/>
+        <c:axId val="2015419768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14318,12 +15886,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662805248"/>
+        <c:crossAx val="2015420160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="662805248"/>
+        <c:axId val="2015420160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14332,7 +15900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="662804856"/>
+        <c:crossAx val="2015419768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14465,7 +16033,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14954,8 +16521,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="662806032"/>
-        <c:axId val="662806424"/>
+        <c:axId val="2015420944"/>
+        <c:axId val="2015421336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15201,11 +16768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="662826912"/>
-        <c:axId val="662806816"/>
+        <c:axId val="2015422120"/>
+        <c:axId val="2015421728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="662806032"/>
+        <c:axId val="2015420944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15248,7 +16815,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662806424"/>
+        <c:crossAx val="2015421336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15256,7 +16823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662806424"/>
+        <c:axId val="2015421336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15307,12 +16874,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662806032"/>
+        <c:crossAx val="2015420944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="662806816"/>
+        <c:axId val="2015421728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15349,12 +16916,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662826912"/>
+        <c:crossAx val="2015422120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="662826912"/>
+        <c:axId val="2015422120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15364,7 +16931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="662806816"/>
+        <c:crossAx val="2015421728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15497,7 +17064,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15598,7 +17164,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15687,8 +17252,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="662828872"/>
-        <c:axId val="662828480"/>
+        <c:axId val="2015424080"/>
+        <c:axId val="2015423688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15770,7 +17335,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15860,11 +17424,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="662827696"/>
-        <c:axId val="662828088"/>
+        <c:axId val="2015422904"/>
+        <c:axId val="2015423296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="662827696"/>
+        <c:axId val="2015422904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15907,7 +17471,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662828088"/>
+        <c:crossAx val="2015423296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15915,7 +17479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662828088"/>
+        <c:axId val="2015423296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15966,12 +17530,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662827696"/>
+        <c:crossAx val="2015422904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="662828480"/>
+        <c:axId val="2015423688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16008,12 +17572,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662828872"/>
+        <c:crossAx val="2015424080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="662828872"/>
+        <c:axId val="2015424080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16023,7 +17587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="662828480"/>
+        <c:crossAx val="2015423688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16516,6 +18080,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -21902,8 +23506,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -21960,7 +23564,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -22011,6 +23615,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050">
         <a:solidFill>
@@ -25966,8 +28073,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -25975,7 +28082,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26243,8 +28350,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -26252,7 +28359,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26507,7 +28614,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26531,12 +28638,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1426031" cy="275717"/>
+    <xdr:ext cx="2062616" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="文本框 10"/>
@@ -26544,8 +28651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9810750" y="1057275"/>
-          <a:ext cx="1426031" cy="275717"/>
+          <a:off x="9667875" y="1000125"/>
+          <a:ext cx="2062616" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26575,20 +28682,24 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>34</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>共</a:t>
+            <a:t>个主体</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>79</a:t>
+            <a:t>,79</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>只，</a:t>
+            <a:t>只债券</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>406.35</a:t>
+            <a:t>,406.35</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -26599,6 +28710,41 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -26868,8 +29014,8 @@
   <dimension ref="B1:W112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34391,8 +36537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -34437,7 +36583,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>622</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -34459,7 +36605,7 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="11" t="s">
         <v>408</v>
       </c>
@@ -34482,7 +36628,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="11" t="s">
         <v>412</v>
       </c>
@@ -34502,7 +36648,7 @@
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="11" t="s">
         <v>404</v>
       </c>
@@ -34525,7 +36671,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="11" t="s">
         <v>381</v>
       </c>
@@ -34545,7 +36691,7 @@
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="11" t="s">
         <v>377</v>
       </c>
@@ -34565,7 +36711,7 @@
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="11" t="s">
         <v>384</v>
       </c>
@@ -34585,7 +36731,7 @@
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="11" t="s">
         <v>398</v>
       </c>
@@ -34605,7 +36751,7 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="11" t="s">
         <v>395</v>
       </c>
@@ -34625,7 +36771,7 @@
       <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="11" t="s">
         <v>401</v>
       </c>
@@ -34645,7 +36791,7 @@
       <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="11" t="s">
         <v>601</v>
       </c>
@@ -34668,7 +36814,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="11" t="s">
         <v>371</v>
       </c>
@@ -34688,7 +36834,7 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="11" t="s">
         <v>368</v>
       </c>
@@ -34708,7 +36854,7 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="11" t="s">
         <v>363</v>
       </c>
@@ -34728,7 +36874,7 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="11" t="s">
         <v>359</v>
       </c>
@@ -34748,7 +36894,7 @@
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="11" t="s">
         <v>354</v>
       </c>
@@ -34768,7 +36914,7 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="11" t="s">
         <v>350</v>
       </c>
@@ -34788,7 +36934,7 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="11" t="s">
         <v>346</v>
       </c>
@@ -34808,7 +36954,7 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="46" t="s">
         <v>627</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -34830,7 +36976,7 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="11" t="s">
         <v>606</v>
       </c>
@@ -34853,7 +36999,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="11" t="s">
         <v>330</v>
       </c>
@@ -34873,7 +37019,7 @@
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="11" t="s">
         <v>323</v>
       </c>
@@ -34893,7 +37039,7 @@
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="11" t="s">
         <v>316</v>
       </c>
@@ -34913,7 +37059,7 @@
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="11" t="s">
         <v>307</v>
       </c>
@@ -34933,7 +37079,7 @@
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="11" t="s">
         <v>314</v>
       </c>
@@ -34953,7 +37099,7 @@
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="11" t="s">
         <v>303</v>
       </c>
@@ -34973,7 +37119,7 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="11" t="s">
         <v>624</v>
       </c>
@@ -34998,7 +37144,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="11" t="s">
         <v>287</v>
       </c>
@@ -35018,7 +37164,7 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="11" t="s">
         <v>281</v>
       </c>
@@ -35038,7 +37184,7 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="11" t="s">
         <v>273</v>
       </c>
@@ -35058,7 +37204,7 @@
       <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="11" t="s">
         <v>610</v>
       </c>
@@ -35083,7 +37229,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="11" t="s">
         <v>613</v>
       </c>
@@ -35108,7 +37254,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="11" t="s">
         <v>615</v>
       </c>
@@ -35133,7 +37279,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="11" t="s">
         <v>256</v>
       </c>
@@ -35153,7 +37299,7 @@
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="11" t="s">
         <v>617</v>
       </c>
@@ -35178,7 +37324,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="11" t="s">
         <v>619</v>
       </c>
@@ -35203,7 +37349,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A38" s="45"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="11" t="s">
         <v>242</v>
       </c>
@@ -35223,7 +37369,7 @@
       <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A39" s="46"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="11" t="s">
         <v>623</v>
       </c>
@@ -35248,7 +37394,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="46" t="s">
         <v>628</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -35270,7 +37416,7 @@
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A41" s="45"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="11" t="s">
         <v>228</v>
       </c>
@@ -35290,7 +37436,7 @@
       <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A42" s="45"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="11" t="s">
         <v>220</v>
       </c>
@@ -35312,7 +37458,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A43" s="45"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="11" t="s">
         <v>213</v>
       </c>
@@ -35332,7 +37478,7 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A44" s="45"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="11" t="s">
         <v>209</v>
       </c>
@@ -35352,7 +37498,7 @@
       <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A45" s="45"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="11" t="s">
         <v>199</v>
       </c>
@@ -35374,7 +37520,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A46" s="45"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="11" t="s">
         <v>195</v>
       </c>
@@ -35394,7 +37540,7 @@
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A47" s="45"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="11" t="s">
         <v>187</v>
       </c>
@@ -35416,7 +37562,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A48" s="45"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="11" t="s">
         <v>180</v>
       </c>
@@ -35436,7 +37582,7 @@
       <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A49" s="45"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="11" t="s">
         <v>172</v>
       </c>
@@ -35456,7 +37602,7 @@
       <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="46" t="s">
         <v>659</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -35478,7 +37624,7 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A51" s="45"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="11" t="s">
         <v>170</v>
       </c>
@@ -35498,7 +37644,7 @@
       <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A52" s="45"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="11" t="s">
         <v>155</v>
       </c>
@@ -35518,7 +37664,7 @@
       <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A53" s="45"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="11" t="s">
         <v>148</v>
       </c>
@@ -35538,7 +37684,7 @@
       <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A54" s="45"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="11" t="s">
         <v>140</v>
       </c>
@@ -35558,7 +37704,7 @@
       <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A55" s="45"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="11" t="s">
         <v>131</v>
       </c>
@@ -35578,7 +37724,7 @@
       <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A56" s="45"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="11" t="s">
         <v>127</v>
       </c>
@@ -35598,7 +37744,7 @@
       <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A57" s="45"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="11" t="s">
         <v>117</v>
       </c>
@@ -35618,7 +37764,7 @@
       <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A58" s="45"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="11" t="s">
         <v>121</v>
       </c>
@@ -35638,7 +37784,7 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A59" s="45"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="11" t="s">
         <v>124</v>
       </c>
@@ -35658,7 +37804,7 @@
       <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A60" s="45"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="11" t="s">
         <v>112</v>
       </c>
@@ -35678,7 +37824,7 @@
       <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A61" s="45"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="11" t="s">
         <v>630</v>
       </c>
@@ -35701,7 +37847,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A62" s="45"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="11" t="s">
         <v>102</v>
       </c>
@@ -35721,7 +37867,7 @@
       <c r="H62" s="26"/>
     </row>
     <row r="63" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A63" s="45"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="11" t="s">
         <v>90</v>
       </c>
@@ -35746,7 +37892,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A64" s="45"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="11" t="s">
         <v>78</v>
       </c>
@@ -35771,7 +37917,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A65" s="45"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="11" t="s">
         <v>80</v>
       </c>
@@ -35796,7 +37942,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A66" s="45"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="11" t="s">
         <v>82</v>
       </c>
@@ -35821,7 +37967,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A67" s="45"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="11" t="s">
         <v>67</v>
       </c>
@@ -35846,7 +37992,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A68" s="45"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="11" t="s">
         <v>74</v>
       </c>
@@ -35871,7 +38017,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A69" s="45"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="11" t="s">
         <v>76</v>
       </c>
@@ -35896,7 +38042,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A70" s="45"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="11" t="s">
         <v>96</v>
       </c>
@@ -35921,7 +38067,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A71" s="45"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="11" t="s">
         <v>94</v>
       </c>
@@ -35946,7 +38092,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A72" s="45"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="11" t="s">
         <v>100</v>
       </c>
@@ -35971,7 +38117,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A73" s="45"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="11" t="s">
         <v>98</v>
       </c>
@@ -35996,7 +38142,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A74" s="45"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="11" t="s">
         <v>88</v>
       </c>
@@ -36021,7 +38167,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A75" s="45"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="11" t="s">
         <v>84</v>
       </c>
@@ -36046,7 +38192,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A76" s="45"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="11" t="s">
         <v>92</v>
       </c>
@@ -36071,7 +38217,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A77" s="45"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="11" t="s">
         <v>632</v>
       </c>
@@ -36096,7 +38242,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A78" s="45"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="11" t="s">
         <v>48</v>
       </c>
@@ -36116,7 +38262,7 @@
       <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A79" s="45"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="11" t="s">
         <v>37</v>
       </c>
@@ -36139,7 +38285,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A80" s="46"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="11" t="s">
         <v>20</v>
       </c>
@@ -36168,11 +38314,11 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="44" t="s">
         <v>658</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
@@ -36266,7 +38412,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -36334,7 +38480,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:XFD16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -36365,7 +38511,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>589</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -36385,7 +38531,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="11" t="s">
         <v>346</v>
       </c>
@@ -36403,7 +38549,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="11" t="s">
         <v>354</v>
       </c>
@@ -36421,39 +38567,39 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="11" t="s">
         <v>359</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14">
         <v>42442</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="11" t="s">
         <v>363</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="51" t="s">
         <v>591</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14">
         <v>42439</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="11" t="s">
         <v>368</v>
       </c>
@@ -36471,7 +38617,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="11" t="s">
         <v>371</v>
       </c>
@@ -36489,7 +38635,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="11" t="s">
         <v>381</v>
       </c>
@@ -36507,7 +38653,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="11" t="s">
         <v>377</v>
       </c>
@@ -36525,7 +38671,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="11" t="s">
         <v>384</v>
       </c>
@@ -36543,7 +38689,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="11" t="s">
         <v>398</v>
       </c>
@@ -36561,7 +38707,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="11" t="s">
         <v>395</v>
       </c>
@@ -36579,7 +38725,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="11" t="s">
         <v>401</v>
       </c>
@@ -36597,7 +38743,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="11" t="s">
         <v>404</v>
       </c>
@@ -36615,7 +38761,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="11" t="s">
         <v>408</v>
       </c>
@@ -36633,7 +38779,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="11" t="s">
         <v>412</v>
       </c>
@@ -36651,7 +38797,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="11" t="s">
         <v>417</v>
       </c>
@@ -36669,7 +38815,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="46" t="s">
         <v>592</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -36689,7 +38835,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="11" t="s">
         <v>330</v>
       </c>
@@ -36707,7 +38853,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="11" t="s">
         <v>323</v>
       </c>
@@ -36725,7 +38871,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="11" t="s">
         <v>316</v>
       </c>
@@ -36743,7 +38889,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="11" t="s">
         <v>307</v>
       </c>
@@ -36761,7 +38907,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="11" t="s">
         <v>314</v>
       </c>
@@ -36779,7 +38925,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="11" t="s">
         <v>303</v>
       </c>
@@ -36797,7 +38943,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="11" t="s">
         <v>287</v>
       </c>
@@ -36815,7 +38961,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="11" t="s">
         <v>281</v>
       </c>
@@ -36833,7 +38979,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="11" t="s">
         <v>273</v>
       </c>
@@ -36851,7 +38997,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="11" t="s">
         <v>256</v>
       </c>
@@ -36869,7 +39015,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="11" t="s">
         <v>242</v>
       </c>
@@ -36887,7 +39033,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="46" t="s">
         <v>593</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -36907,7 +39053,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="11" t="s">
         <v>180</v>
       </c>
@@ -36925,7 +39071,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="11" t="s">
         <v>195</v>
       </c>
@@ -36943,7 +39089,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="11" t="s">
         <v>228</v>
       </c>
@@ -36961,7 +39107,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="11" t="s">
         <v>232</v>
       </c>
@@ -36979,55 +39125,55 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E36" s="48"/>
+      <c r="E36" s="50"/>
       <c r="F36" s="14">
         <v>42634</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="11" t="s">
         <v>199</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E37" s="48"/>
+      <c r="E37" s="50"/>
       <c r="F37" s="14">
         <v>42604</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A38" s="45"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E38" s="48"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="14">
         <v>42579</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A39" s="45"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="11" t="s">
         <v>209</v>
       </c>
@@ -37045,7 +39191,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A40" s="45"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="11" t="s">
         <v>213</v>
       </c>
@@ -37063,7 +39209,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="46" t="s">
         <v>596</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -37083,7 +39229,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A42" s="45"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="11" t="s">
         <v>117</v>
       </c>
@@ -37101,7 +39247,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A43" s="45"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="11" t="s">
         <v>121</v>
       </c>
@@ -37119,7 +39265,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A44" s="45"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="11" t="s">
         <v>124</v>
       </c>
@@ -37137,7 +39283,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A45" s="45"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="11" t="s">
         <v>127</v>
       </c>
@@ -37155,7 +39301,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A46" s="45"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="11" t="s">
         <v>102</v>
       </c>
@@ -37173,7 +39319,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A47" s="45"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="11" t="s">
         <v>131</v>
       </c>
@@ -37191,23 +39337,23 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A48" s="45"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E48" s="48"/>
+      <c r="E48" s="50"/>
       <c r="F48" s="14">
         <v>42677</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A49" s="45"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="11" t="s">
         <v>155</v>
       </c>
@@ -37225,7 +39371,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A50" s="45"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="11" t="s">
         <v>112</v>
       </c>
@@ -37243,65 +39389,65 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A51" s="45"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E51" s="48"/>
+      <c r="E51" s="50"/>
       <c r="F51" s="14">
         <v>42688</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A52" s="45"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E52" s="48"/>
+      <c r="E52" s="50"/>
       <c r="F52" s="14">
         <v>42687</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A53" s="45"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E53" s="48"/>
+      <c r="E53" s="50"/>
       <c r="F53" s="14">
         <v>42664</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A54" s="46"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="E54" s="48"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="14">
         <v>42664</v>
       </c>
@@ -37333,8 +39479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37377,7 +39523,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>622</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -37399,7 +39545,7 @@
       <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="11" t="s">
         <v>408</v>
       </c>
@@ -37419,7 +39565,7 @@
       <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="11" t="s">
         <v>412</v>
       </c>
@@ -37439,7 +39585,7 @@
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="11" t="s">
         <v>404</v>
       </c>
@@ -37459,7 +39605,7 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="11" t="s">
         <v>381</v>
       </c>
@@ -37479,7 +39625,7 @@
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="11" t="s">
         <v>377</v>
       </c>
@@ -37499,7 +39645,7 @@
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="11" t="s">
         <v>384</v>
       </c>
@@ -37519,7 +39665,7 @@
       <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="11" t="s">
         <v>398</v>
       </c>
@@ -37539,7 +39685,7 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="11" t="s">
         <v>395</v>
       </c>
@@ -37559,7 +39705,7 @@
       <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="11" t="s">
         <v>401</v>
       </c>
@@ -37579,7 +39725,7 @@
       <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="11" t="s">
         <v>601</v>
       </c>
@@ -37605,7 +39751,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="11" t="s">
         <v>371</v>
       </c>
@@ -37625,7 +39771,7 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="11" t="s">
         <v>368</v>
       </c>
@@ -37645,7 +39791,7 @@
       <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="11" t="s">
         <v>363</v>
       </c>
@@ -37665,7 +39811,7 @@
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="11" t="s">
         <v>359</v>
       </c>
@@ -37685,7 +39831,7 @@
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="11" t="s">
         <v>354</v>
       </c>
@@ -37705,7 +39851,7 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="11" t="s">
         <v>350</v>
       </c>
@@ -37725,7 +39871,7 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="11" t="s">
         <v>346</v>
       </c>
@@ -37745,7 +39891,7 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="46" t="s">
         <v>627</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -37767,7 +39913,7 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="11" t="s">
         <v>606</v>
       </c>
@@ -37793,7 +39939,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="11" t="s">
         <v>330</v>
       </c>
@@ -37813,7 +39959,7 @@
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="11" t="s">
         <v>323</v>
       </c>
@@ -37833,7 +39979,7 @@
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="11" t="s">
         <v>316</v>
       </c>
@@ -37853,7 +39999,7 @@
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="11" t="s">
         <v>307</v>
       </c>
@@ -37873,7 +40019,7 @@
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="11" t="s">
         <v>314</v>
       </c>
@@ -37893,7 +40039,7 @@
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="11" t="s">
         <v>303</v>
       </c>
@@ -37913,7 +40059,7 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="11" t="s">
         <v>624</v>
       </c>
@@ -37941,7 +40087,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="11" t="s">
         <v>287</v>
       </c>
@@ -37961,7 +40107,7 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="11" t="s">
         <v>281</v>
       </c>
@@ -37981,7 +40127,7 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="11" t="s">
         <v>273</v>
       </c>
@@ -38001,7 +40147,7 @@
       <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:12" ht="27.75" thickBot="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="11" t="s">
         <v>671</v>
       </c>
@@ -38035,7 +40181,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="11" t="s">
         <v>613</v>
       </c>
@@ -38063,7 +40209,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="11" t="s">
         <v>615</v>
       </c>
@@ -38091,7 +40237,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="11" t="s">
         <v>256</v>
       </c>
@@ -38111,7 +40257,7 @@
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="11" t="s">
         <v>617</v>
       </c>
@@ -38139,7 +40285,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="11" t="s">
         <v>619</v>
       </c>
@@ -38167,7 +40313,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A38" s="45"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="11" t="s">
         <v>242</v>
       </c>
@@ -38187,7 +40333,7 @@
       <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A39" s="46"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="11" t="s">
         <v>623</v>
       </c>
@@ -38215,7 +40361,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="46" t="s">
         <v>628</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -38237,7 +40383,7 @@
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A41" s="45"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="11" t="s">
         <v>228</v>
       </c>
@@ -38257,7 +40403,7 @@
       <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A42" s="45"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="11" t="s">
         <v>220</v>
       </c>
@@ -38282,7 +40428,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A43" s="45"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="11" t="s">
         <v>213</v>
       </c>
@@ -38302,7 +40448,7 @@
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A44" s="45"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="11" t="s">
         <v>209</v>
       </c>
@@ -38322,7 +40468,7 @@
       <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A45" s="45"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="11" t="s">
         <v>199</v>
       </c>
@@ -38347,7 +40493,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A46" s="45"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="11" t="s">
         <v>195</v>
       </c>
@@ -38367,7 +40513,7 @@
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A47" s="45"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="11" t="s">
         <v>187</v>
       </c>
@@ -38392,7 +40538,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A48" s="45"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="11" t="s">
         <v>180</v>
       </c>
@@ -38412,7 +40558,7 @@
       <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A49" s="45"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="11" t="s">
         <v>172</v>
       </c>
@@ -38432,7 +40578,7 @@
       <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="46" t="s">
         <v>659</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -38454,7 +40600,7 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A51" s="45"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="11" t="s">
         <v>170</v>
       </c>
@@ -38474,7 +40620,7 @@
       <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A52" s="45"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="11" t="s">
         <v>155</v>
       </c>
@@ -38494,7 +40640,7 @@
       <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A53" s="45"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="11" t="s">
         <v>148</v>
       </c>
@@ -38517,7 +40663,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A54" s="45"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="11" t="s">
         <v>140</v>
       </c>
@@ -38537,7 +40683,7 @@
       <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A55" s="45"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="11" t="s">
         <v>131</v>
       </c>
@@ -38557,7 +40703,7 @@
       <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A56" s="45"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="11" t="s">
         <v>127</v>
       </c>
@@ -38577,7 +40723,7 @@
       <c r="H56" s="26"/>
     </row>
     <row r="57" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A57" s="45"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="11" t="s">
         <v>117</v>
       </c>
@@ -38597,7 +40743,7 @@
       <c r="H57" s="26"/>
     </row>
     <row r="58" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A58" s="45"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="11" t="s">
         <v>121</v>
       </c>
@@ -38617,7 +40763,7 @@
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A59" s="45"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="11" t="s">
         <v>124</v>
       </c>
@@ -38637,7 +40783,7 @@
       <c r="H59" s="26"/>
     </row>
     <row r="60" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A60" s="45"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="11" t="s">
         <v>112</v>
       </c>
@@ -38657,7 +40803,7 @@
       <c r="H60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A61" s="45"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="11" t="s">
         <v>630</v>
       </c>
@@ -38683,7 +40829,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A62" s="45"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="11" t="s">
         <v>102</v>
       </c>
@@ -38706,7 +40852,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A63" s="45"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="11" t="s">
         <v>90</v>
       </c>
@@ -38734,7 +40880,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A64" s="45"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="11" t="s">
         <v>78</v>
       </c>
@@ -38762,7 +40908,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A65" s="45"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="11" t="s">
         <v>80</v>
       </c>
@@ -38790,7 +40936,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A66" s="45"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="11" t="s">
         <v>82</v>
       </c>
@@ -38818,7 +40964,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A67" s="45"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="11" t="s">
         <v>67</v>
       </c>
@@ -38846,7 +40992,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A68" s="45"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="11" t="s">
         <v>74</v>
       </c>
@@ -38874,7 +41020,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A69" s="45"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="11" t="s">
         <v>76</v>
       </c>
@@ -38902,7 +41048,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A70" s="45"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="11" t="s">
         <v>96</v>
       </c>
@@ -38930,7 +41076,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A71" s="45"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="11" t="s">
         <v>94</v>
       </c>
@@ -38958,7 +41104,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A72" s="45"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="11" t="s">
         <v>100</v>
       </c>
@@ -38986,7 +41132,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A73" s="45"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="11" t="s">
         <v>98</v>
       </c>
@@ -39014,7 +41160,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A74" s="45"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="11" t="s">
         <v>88</v>
       </c>
@@ -39042,7 +41188,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A75" s="45"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="11" t="s">
         <v>84</v>
       </c>
@@ -39070,7 +41216,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A76" s="45"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="11" t="s">
         <v>92</v>
       </c>
@@ -39098,7 +41244,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A77" s="45"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="11" t="s">
         <v>632</v>
       </c>
@@ -39126,7 +41272,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A78" s="45"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="11" t="s">
         <v>48</v>
       </c>
@@ -39146,7 +41292,7 @@
       <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A79" s="45"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="11" t="s">
         <v>37</v>
       </c>
@@ -39172,7 +41318,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A80" s="46"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="11" t="s">
         <v>20</v>
       </c>
@@ -42143,11 +44289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E220"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42158,7 +44304,7 @@
     <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="5" t="s">
         <v>673</v>
       </c>
@@ -42168,8 +44314,11 @@
       <c r="D2" s="5" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="42" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="31">
         <v>2011</v>
       </c>
@@ -42179,8 +44328,11 @@
       <c r="D3" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="31">
         <v>2012</v>
       </c>
@@ -42190,8 +44342,11 @@
       <c r="D4" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="31">
         <v>2013</v>
       </c>
@@ -42201,8 +44356,11 @@
       <c r="D5" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="31">
         <v>2014</v>
       </c>
@@ -42212,8 +44370,11 @@
       <c r="D6" s="31">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="31">
         <v>2015</v>
       </c>
@@ -42223,8 +44384,11 @@
       <c r="D7" s="31">
         <v>126.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="31">
         <v>2016</v>
       </c>
@@ -42234,8 +44398,11 @@
       <c r="D8" s="31">
         <v>406.35</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="C9">
         <f>SUM(C3:C8)</f>
         <v>108</v>
@@ -42243,6 +44410,9 @@
       <c r="D9">
         <f>SUM(D3:D8)</f>
         <v>545.85</v>
+      </c>
+      <c r="E9" s="43">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -43030,7 +45200,7 @@
       </c>
     </row>
     <row r="163" spans="2:5">
-      <c r="B163" s="51" t="s">
+      <c r="B163" s="53" t="s">
         <v>699</v>
       </c>
       <c r="C163" s="35" t="s">
@@ -43045,7 +45215,7 @@
       </c>
     </row>
     <row r="164" spans="2:5">
-      <c r="B164" s="51"/>
+      <c r="B164" s="53"/>
       <c r="C164" s="35" t="s">
         <v>700</v>
       </c>
@@ -43058,7 +45228,7 @@
       </c>
     </row>
     <row r="165" spans="2:5">
-      <c r="B165" s="51"/>
+      <c r="B165" s="53"/>
       <c r="C165" s="35" t="s">
         <v>701</v>
       </c>
@@ -43071,7 +45241,7 @@
       </c>
     </row>
     <row r="166" spans="2:5">
-      <c r="B166" s="51" t="s">
+      <c r="B166" s="53" t="s">
         <v>703</v>
       </c>
       <c r="C166" s="35" t="s">
@@ -43086,7 +45256,7 @@
       </c>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="51"/>
+      <c r="B167" s="53"/>
       <c r="C167" s="35" t="s">
         <v>709</v>
       </c>
@@ -43660,7 +45830,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -43668,8 +45840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="E217" sqref="E217"/>
+    <sheetView topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -43681,7 +45853,7 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="5" t="s">
         <v>722</v>
       </c>
@@ -43691,8 +45863,11 @@
       <c r="D2" s="5" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="31" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="31">
         <v>201601</v>
       </c>
@@ -43702,8 +45877,11 @@
       <c r="D3" s="31">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="31">
         <v>201602</v>
       </c>
@@ -43713,8 +45891,11 @@
       <c r="D4" s="31">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="31">
         <v>201603</v>
       </c>
@@ -43724,8 +45905,11 @@
       <c r="D5" s="31">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="31">
         <v>201604</v>
       </c>
@@ -43735,8 +45919,11 @@
       <c r="D6" s="31">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="31">
         <v>201605</v>
       </c>
@@ -43746,8 +45933,11 @@
       <c r="D7" s="31">
         <v>52.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="31">
         <v>201606</v>
       </c>
@@ -43757,8 +45947,11 @@
       <c r="D8" s="31">
         <v>13.31</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="31">
         <v>201607</v>
       </c>
@@ -43768,8 +45961,11 @@
       <c r="D9" s="31">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="31">
         <v>201608</v>
       </c>
@@ -43779,8 +45975,11 @@
       <c r="D10" s="31">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="31">
         <v>201609</v>
       </c>
@@ -43790,8 +45989,11 @@
       <c r="D11" s="31">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="31">
         <v>201610</v>
       </c>
@@ -43801,8 +46003,11 @@
       <c r="D12" s="31">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="31">
         <v>201611</v>
       </c>
@@ -43812,8 +46017,11 @@
       <c r="D13" s="31">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="31">
         <v>201612</v>
       </c>
@@ -43823,8 +46031,11 @@
       <c r="D14" s="31">
         <v>61.62</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="C15">
         <f>SUM(C3:C14)</f>
         <v>79</v>
@@ -43832,6 +46043,9 @@
       <c r="D15">
         <f>SUM(D3:D14)</f>
         <v>406.35</v>
+      </c>
+      <c r="E15">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -43987,10 +46201,10 @@
         <v>680</v>
       </c>
       <c r="C74" t="s">
+        <v>729</v>
+      </c>
+      <c r="D74" t="s">
         <v>725</v>
-      </c>
-      <c r="D74" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -44610,10 +46824,10 @@
         <v>686</v>
       </c>
       <c r="C148" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D148" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -44709,7 +46923,7 @@
       </c>
     </row>
     <row r="166" spans="2:11">
-      <c r="B166" s="51" t="s">
+      <c r="B166" s="53" t="s">
         <v>699</v>
       </c>
       <c r="C166" s="37" t="s">
@@ -44736,7 +46950,7 @@
       </c>
     </row>
     <row r="167" spans="2:11">
-      <c r="B167" s="51"/>
+      <c r="B167" s="53"/>
       <c r="C167" s="37" t="s">
         <v>700</v>
       </c>
@@ -44761,7 +46975,7 @@
       </c>
     </row>
     <row r="168" spans="2:11">
-      <c r="B168" s="51"/>
+      <c r="B168" s="53"/>
       <c r="C168" s="37" t="s">
         <v>701</v>
       </c>
@@ -44786,7 +47000,7 @@
       </c>
     </row>
     <row r="169" spans="2:11">
-      <c r="B169" s="51" t="s">
+      <c r="B169" s="53" t="s">
         <v>703</v>
       </c>
       <c r="C169" s="37" t="s">
@@ -44813,7 +47027,7 @@
       </c>
     </row>
     <row r="170" spans="2:11">
-      <c r="B170" s="51"/>
+      <c r="B170" s="53"/>
       <c r="C170" s="37" t="s">
         <v>709</v>
       </c>
@@ -45330,80 +47544,65 @@
         <v>7</v>
       </c>
       <c r="C216" s="31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D216" s="31" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217">
+      <c r="B217" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="C217" s="31">
+        <v>31</v>
+      </c>
+      <c r="D217" s="31">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="B218" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C218" s="31">
         <v>1</v>
       </c>
-      <c r="B217" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C217" s="31">
-        <v>1</v>
-      </c>
-      <c r="D217" s="31">
+      <c r="D218" s="31">
         <v>0.2</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218">
-        <v>2</v>
-      </c>
-      <c r="B218" s="31" t="s">
+    <row r="219" spans="1:4">
+      <c r="B219" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C219" s="31">
+        <v>16</v>
+      </c>
+      <c r="D219" s="31">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="B220" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C218" s="31">
+      <c r="C220" s="31">
         <v>19</v>
       </c>
-      <c r="D218" s="31">
+      <c r="D220" s="31">
         <v>137.69999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219">
-        <v>3</v>
-      </c>
-      <c r="B219" s="31" t="s">
+    <row r="221" spans="1:4">
+      <c r="B221" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C219" s="31">
+      <c r="C221" s="31">
         <v>12</v>
       </c>
-      <c r="D219" s="31">
+      <c r="D221" s="31">
         <v>154.5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220">
-        <v>4</v>
-      </c>
-      <c r="B220" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C220" s="31">
-        <v>16</v>
-      </c>
-      <c r="D220" s="31">
-        <v>101.5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221">
-        <v>5</v>
-      </c>
-      <c r="B221" s="31" t="s">
-        <v>713</v>
-      </c>
-      <c r="C221" s="31">
-        <v>31</v>
-      </c>
-      <c r="D221" s="31">
-        <v>12.45</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -45413,7 +47612,7 @@
       </c>
       <c r="D222">
         <f>SUM(D217:D221)</f>
-        <v>406.34999999999997</v>
+        <v>406.35</v>
       </c>
     </row>
   </sheetData>
@@ -45423,6 +47622,399 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>201501</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>201502</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>201503</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>201504</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>23.8</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>201505</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5.9</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>201507</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>201508</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>201509</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>201510</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>32.6</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>201511</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>22.5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>201512</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>16.5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>201601</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>201602</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>76.5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>201603</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>201604</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>201605</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>52.5</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>201606</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>13.31</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>201607</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>13.2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>201608</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>14.8</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>201609</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>12.2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>201610</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2.82</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>201611</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>201612</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>61.62</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>201701</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>201702</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>201703</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/违约债券报表.xlsx
+++ b/违约债券报表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AllDefault" sheetId="1" r:id="rId1"/>
@@ -3609,16 +3609,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3984,8 +3984,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1547561584"/>
-        <c:axId val="1547561976"/>
+        <c:axId val="310103472"/>
+        <c:axId val="310103088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4144,11 +4144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1547562760"/>
-        <c:axId val="1547562368"/>
+        <c:axId val="310098224"/>
+        <c:axId val="310102704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1547562760"/>
+        <c:axId val="310098224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4191,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1547562368"/>
+        <c:crossAx val="310102704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4199,7 +4199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1547562368"/>
+        <c:axId val="310102704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,12 +4250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1547562760"/>
+        <c:crossAx val="310098224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1547561976"/>
+        <c:axId val="310103088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4292,12 +4292,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1547561584"/>
+        <c:crossAx val="310103472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1547561584"/>
+        <c:axId val="310103472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,7 +4307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1547561976"/>
+        <c:crossAx val="310103088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4817,8 +4817,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2015426040"/>
-        <c:axId val="2015425648"/>
+        <c:axId val="418944944"/>
+        <c:axId val="418944552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5020,11 +5020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2015424864"/>
-        <c:axId val="2015425256"/>
+        <c:axId val="418943768"/>
+        <c:axId val="418944160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2015424864"/>
+        <c:axId val="418943768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5067,7 +5067,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015425256"/>
+        <c:crossAx val="418944160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5075,7 +5075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2015425256"/>
+        <c:axId val="418944160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5126,12 +5126,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015424864"/>
+        <c:crossAx val="418943768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2015425648"/>
+        <c:axId val="418944552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5168,12 +5168,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015426040"/>
+        <c:crossAx val="418944944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2015426040"/>
+        <c:axId val="418944944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,7 +5183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2015425648"/>
+        <c:crossAx val="418944552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6782,6 +6782,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6881,6 +6882,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6969,8 +6971,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2015427608"/>
-        <c:axId val="2015428000"/>
+        <c:axId val="418946512"/>
+        <c:axId val="419354280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7084,11 +7086,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1550834096"/>
-        <c:axId val="1550834488"/>
+        <c:axId val="419355064"/>
+        <c:axId val="419354672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2015427608"/>
+        <c:axId val="418946512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7131,7 +7133,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015428000"/>
+        <c:crossAx val="419354280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7139,7 +7141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2015428000"/>
+        <c:axId val="419354280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7190,12 +7192,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015427608"/>
+        <c:crossAx val="418946512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1550834488"/>
+        <c:axId val="419354672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7232,12 +7234,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550834096"/>
+        <c:crossAx val="419355064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1550834096"/>
+        <c:axId val="419355064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7247,7 +7249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1550834488"/>
+        <c:crossAx val="419354672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7264,6 +7266,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7479,6 +7482,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7548,8 +7552,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1550833312"/>
-        <c:axId val="1550832920"/>
+        <c:axId val="419355848"/>
+        <c:axId val="419356240"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -7611,6 +7615,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7680,11 +7685,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="1550839584"/>
-        <c:axId val="1550841544"/>
+        <c:axId val="419357024"/>
+        <c:axId val="419356632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1550833312"/>
+        <c:axId val="419355848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7727,7 +7732,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550832920"/>
+        <c:crossAx val="419356240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7736,7 +7741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1550832920"/>
+        <c:axId val="419356240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7787,12 +7792,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550833312"/>
+        <c:crossAx val="419355848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1550841544"/>
+        <c:axId val="419356632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7829,12 +7834,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550839584"/>
+        <c:crossAx val="419357024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1550839584"/>
+        <c:axId val="419357024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7844,7 +7849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1550841544"/>
+        <c:crossAx val="419356632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7861,6 +7866,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8240,8 +8246,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1550838800"/>
-        <c:axId val="1550844680"/>
+        <c:axId val="419357808"/>
+        <c:axId val="419447432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8525,11 +8531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1550843896"/>
-        <c:axId val="1550844288"/>
+        <c:axId val="419448216"/>
+        <c:axId val="419447824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1550838800"/>
+        <c:axId val="419357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8572,7 +8578,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550844680"/>
+        <c:crossAx val="419447432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8580,7 +8586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1550844680"/>
+        <c:axId val="419447432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8631,12 +8637,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550838800"/>
+        <c:crossAx val="419357808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1550844288"/>
+        <c:axId val="419447824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8673,12 +8679,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550843896"/>
+        <c:crossAx val="419448216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1550843896"/>
+        <c:axId val="419448216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8688,7 +8694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1550844288"/>
+        <c:crossAx val="419447824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8995,8 +9001,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="1550841936"/>
-        <c:axId val="1550840368"/>
+        <c:axId val="419449000"/>
+        <c:axId val="419449392"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -9115,11 +9121,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="1550834880"/>
-        <c:axId val="1550835272"/>
+        <c:axId val="419450176"/>
+        <c:axId val="419449784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1550841936"/>
+        <c:axId val="419449000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9162,7 +9168,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550840368"/>
+        <c:crossAx val="419449392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9170,7 +9176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1550840368"/>
+        <c:axId val="419449392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9221,12 +9227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550841936"/>
+        <c:crossAx val="419449000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1550835272"/>
+        <c:axId val="419449784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9263,12 +9269,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1550834880"/>
+        <c:crossAx val="419450176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1550834880"/>
+        <c:axId val="419450176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9277,7 +9283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1550835272"/>
+        <c:crossAx val="419449784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9404,7 +9410,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9833,8 +9838,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1325708904"/>
-        <c:axId val="1325715176"/>
+        <c:axId val="419769256"/>
+        <c:axId val="419769648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9893,9 +9898,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -10112,11 +10115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1325714392"/>
-        <c:axId val="1325714784"/>
+        <c:axId val="419770432"/>
+        <c:axId val="419770040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1325708904"/>
+        <c:axId val="419769256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10159,7 +10162,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1325715176"/>
+        <c:crossAx val="419769648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10167,7 +10170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1325715176"/>
+        <c:axId val="419769648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10218,12 +10221,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1325708904"/>
+        <c:crossAx val="419769256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1325714784"/>
+        <c:axId val="419770040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10260,12 +10263,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1325714392"/>
+        <c:crossAx val="419770432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1325714392"/>
+        <c:axId val="419770432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10275,7 +10278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1325714784"/>
+        <c:crossAx val="419770040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10292,7 +10295,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10403,7 +10405,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10504,7 +10505,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10581,8 +10581,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1684681016"/>
-        <c:axId val="1684682192"/>
+        <c:axId val="419855912"/>
+        <c:axId val="419450960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10664,7 +10664,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10742,11 +10741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1325713216"/>
-        <c:axId val="1325711256"/>
+        <c:axId val="419767296"/>
+        <c:axId val="419770824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1325713216"/>
+        <c:axId val="419767296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10789,7 +10788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1325711256"/>
+        <c:crossAx val="419770824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10797,7 +10796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1325711256"/>
+        <c:axId val="419770824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10848,12 +10847,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1325713216"/>
+        <c:crossAx val="419767296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1684682192"/>
+        <c:axId val="419450960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10890,12 +10889,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684681016"/>
+        <c:crossAx val="419855912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1684681016"/>
+        <c:axId val="419855912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10905,7 +10904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1684682192"/>
+        <c:crossAx val="419450960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10922,7 +10921,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11535,8 +11533,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1705927144"/>
-        <c:axId val="1705928712"/>
+        <c:axId val="419856696"/>
+        <c:axId val="419857088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11886,11 +11884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2018176360"/>
-        <c:axId val="2018177928"/>
+        <c:axId val="419857872"/>
+        <c:axId val="419857480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1705927144"/>
+        <c:axId val="419856696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11933,7 +11931,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705928712"/>
+        <c:crossAx val="419857088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11941,7 +11939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1705928712"/>
+        <c:axId val="419857088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11992,12 +11990,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705927144"/>
+        <c:crossAx val="419856696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2018177928"/>
+        <c:axId val="419857480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12034,12 +12032,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2018176360"/>
+        <c:crossAx val="419857872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2018176360"/>
+        <c:axId val="419857872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12049,7 +12047,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2018177928"/>
+        <c:crossAx val="419857480"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -14043,8 +14042,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2015414280"/>
-        <c:axId val="2015416240"/>
+        <c:axId val="418875872"/>
+        <c:axId val="418876256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14152,11 +14151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2015415848"/>
-        <c:axId val="2015413888"/>
+        <c:axId val="418877024"/>
+        <c:axId val="418876640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2015414280"/>
+        <c:axId val="418875872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14199,7 +14198,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015416240"/>
+        <c:crossAx val="418876256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14207,7 +14206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2015416240"/>
+        <c:axId val="418876256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14258,12 +14257,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015414280"/>
+        <c:crossAx val="418875872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2015413888"/>
+        <c:axId val="418876640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14300,12 +14299,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015415848"/>
+        <c:crossAx val="418877024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2015415848"/>
+        <c:axId val="418877024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14314,7 +14313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2015413888"/>
+        <c:crossAx val="418876640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14584,8 +14583,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="2015414672"/>
-        <c:axId val="2015415456"/>
+        <c:axId val="418512840"/>
+        <c:axId val="418856200"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -14658,11 +14657,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="2015417024"/>
-        <c:axId val="2015416632"/>
+        <c:axId val="307639384"/>
+        <c:axId val="307638992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2015414672"/>
+        <c:axId val="418512840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14705,7 +14704,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015415456"/>
+        <c:crossAx val="418856200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14714,7 +14713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2015415456"/>
+        <c:axId val="418856200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14765,12 +14764,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015414672"/>
+        <c:crossAx val="418512840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2015416632"/>
+        <c:axId val="307638992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14807,12 +14806,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015417024"/>
+        <c:crossAx val="307639384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2015417024"/>
+        <c:axId val="307639384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14822,7 +14821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2015416632"/>
+        <c:crossAx val="307638992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15259,11 +15258,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2015417808"/>
-        <c:axId val="2015418200"/>
+        <c:axId val="307641736"/>
+        <c:axId val="418617376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2015417808"/>
+        <c:axId val="307641736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15306,7 +15305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015418200"/>
+        <c:crossAx val="418617376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15314,7 +15313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2015418200"/>
+        <c:axId val="418617376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15365,7 +15364,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015417808"/>
+        <c:crossAx val="307641736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15626,8 +15625,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2015418984"/>
-        <c:axId val="2015419376"/>
+        <c:axId val="418618160"/>
+        <c:axId val="418618552"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -15738,11 +15737,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2015420160"/>
-        <c:axId val="2015419768"/>
+        <c:axId val="418619336"/>
+        <c:axId val="418618944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2015418984"/>
+        <c:axId val="418618160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15785,7 +15784,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015419376"/>
+        <c:crossAx val="418618552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15793,7 +15792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2015419376"/>
+        <c:axId val="418618552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15844,12 +15843,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015418984"/>
+        <c:crossAx val="418618160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2015419768"/>
+        <c:axId val="418618944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15886,12 +15885,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015420160"/>
+        <c:crossAx val="418619336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2015420160"/>
+        <c:axId val="418619336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15900,7 +15899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2015419768"/>
+        <c:crossAx val="418618944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16521,8 +16520,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2015420944"/>
-        <c:axId val="2015421336"/>
+        <c:axId val="307638600"/>
+        <c:axId val="307641344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16768,11 +16767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2015422120"/>
-        <c:axId val="2015421728"/>
+        <c:axId val="307640560"/>
+        <c:axId val="307640952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2015420944"/>
+        <c:axId val="307638600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16815,7 +16814,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015421336"/>
+        <c:crossAx val="307641344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16823,7 +16822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2015421336"/>
+        <c:axId val="307641344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16874,12 +16873,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015420944"/>
+        <c:crossAx val="307638600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2015421728"/>
+        <c:axId val="307640952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16916,12 +16915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015422120"/>
+        <c:crossAx val="307640560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2015422120"/>
+        <c:axId val="307640560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16931,7 +16930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2015421728"/>
+        <c:crossAx val="307640952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17252,8 +17251,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2015424080"/>
-        <c:axId val="2015423688"/>
+        <c:axId val="418942984"/>
+        <c:axId val="418620904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -17424,11 +17423,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2015422904"/>
-        <c:axId val="2015423296"/>
+        <c:axId val="418620120"/>
+        <c:axId val="418620512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2015422904"/>
+        <c:axId val="418620120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17471,7 +17470,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015423296"/>
+        <c:crossAx val="418620512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17479,7 +17478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2015423296"/>
+        <c:axId val="418620512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17530,12 +17529,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015422904"/>
+        <c:crossAx val="418620120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2015423688"/>
+        <c:axId val="418620904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17572,12 +17571,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2015424080"/>
+        <c:crossAx val="418942984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2015424080"/>
+        <c:axId val="418942984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17587,7 +17586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2015423688"/>
+        <c:crossAx val="418620904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -38574,10 +38573,10 @@
       <c r="C5" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="49" t="s">
         <v>590</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="14">
         <v>42442</v>
       </c>
@@ -38590,10 +38589,10 @@
       <c r="C6" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="49" t="s">
         <v>591</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="14">
         <v>42439</v>
       </c>
@@ -39132,10 +39131,10 @@
       <c r="C36" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="E36" s="50"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="14">
         <v>42634</v>
       </c>
@@ -39148,10 +39147,10 @@
       <c r="C37" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="14">
         <v>42604</v>
       </c>
@@ -39164,10 +39163,10 @@
       <c r="C38" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="E38" s="50"/>
+      <c r="E38" s="52"/>
       <c r="F38" s="14">
         <v>42579</v>
       </c>
@@ -39344,10 +39343,10 @@
       <c r="C48" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="E48" s="50"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="14">
         <v>42677</v>
       </c>
@@ -39396,10 +39395,10 @@
       <c r="C51" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="E51" s="50"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="14">
         <v>42688</v>
       </c>
@@ -39412,10 +39411,10 @@
       <c r="C52" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="E52" s="50"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="14">
         <v>42687</v>
       </c>
@@ -39428,10 +39427,10 @@
       <c r="C53" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="E53" s="50"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="14">
         <v>42664</v>
       </c>
@@ -39444,16 +39443,22 @@
       <c r="C54" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="E54" s="50"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="14">
         <v>42664</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A41:A54"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
@@ -39462,12 +39467,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A41:A54"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45840,8 +45839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K222"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -47631,7 +47630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -48015,6 +48014,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>